--- a/Deaths/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
+++ b/Deaths/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/Deaths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_242B332E13B103BB156855F4CE0E46716C100010" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{46ECEDD2-B2FA-4756-92EC-B6FD5790AFE2}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_242B332E13B103BB156855F4CE0E46716C100010" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0962A82F-0796-4674-A0F3-F9C0EF6D25FF}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2102,6 +2102,300 @@
       </c>
       <c r="D122">
         <v>7201</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>44242</v>
+      </c>
+      <c r="B123">
+        <v>6063</v>
+      </c>
+      <c r="C123">
+        <v>1266</v>
+      </c>
+      <c r="D123">
+        <v>7329</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>44243</v>
+      </c>
+      <c r="B124">
+        <v>6168</v>
+      </c>
+      <c r="C124">
+        <v>1273</v>
+      </c>
+      <c r="D124">
+        <v>7441</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>44244</v>
+      </c>
+      <c r="B125">
+        <v>6271</v>
+      </c>
+      <c r="C125">
+        <v>1288</v>
+      </c>
+      <c r="D125">
+        <v>7559</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B126">
+        <v>6350</v>
+      </c>
+      <c r="C126">
+        <v>1292</v>
+      </c>
+      <c r="D126">
+        <v>7642</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B127">
+        <v>6424</v>
+      </c>
+      <c r="C127">
+        <v>1301</v>
+      </c>
+      <c r="D127">
+        <v>7725</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B128">
+        <v>6505</v>
+      </c>
+      <c r="C128">
+        <v>1313</v>
+      </c>
+      <c r="D128">
+        <v>7818</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>44248</v>
+      </c>
+      <c r="B129">
+        <v>6577</v>
+      </c>
+      <c r="C129">
+        <v>1334</v>
+      </c>
+      <c r="D129">
+        <v>7911</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B130">
+        <v>6671</v>
+      </c>
+      <c r="C130">
+        <v>1343</v>
+      </c>
+      <c r="D130">
+        <v>8014</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B131">
+        <v>6775</v>
+      </c>
+      <c r="C131">
+        <v>1360</v>
+      </c>
+      <c r="D131">
+        <v>8135</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B132">
+        <v>6859</v>
+      </c>
+      <c r="C132">
+        <v>1370</v>
+      </c>
+      <c r="D132">
+        <v>8229</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>44252</v>
+      </c>
+      <c r="B133">
+        <v>6966</v>
+      </c>
+      <c r="C133">
+        <v>1386</v>
+      </c>
+      <c r="D133">
+        <v>8352</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B134">
+        <v>7075</v>
+      </c>
+      <c r="C134">
+        <v>1420</v>
+      </c>
+      <c r="D134">
+        <v>8495</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>44254</v>
+      </c>
+      <c r="B135">
+        <v>7189</v>
+      </c>
+      <c r="C135">
+        <v>1441</v>
+      </c>
+      <c r="D135">
+        <v>8630</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B136">
+        <v>7270</v>
+      </c>
+      <c r="C136">
+        <v>1472</v>
+      </c>
+      <c r="D136">
+        <v>8742</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B137">
+        <v>7388</v>
+      </c>
+      <c r="C137">
+        <v>1497</v>
+      </c>
+      <c r="D137">
+        <v>8885</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>44257</v>
+      </c>
+      <c r="B138">
+        <v>7489</v>
+      </c>
+      <c r="C138">
+        <v>1524</v>
+      </c>
+      <c r="D138">
+        <v>9013</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>44258</v>
+      </c>
+      <c r="B139">
+        <v>7560</v>
+      </c>
+      <c r="C139">
+        <v>1545</v>
+      </c>
+      <c r="D139">
+        <v>9105</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>44259</v>
+      </c>
+      <c r="B140">
+        <v>7665</v>
+      </c>
+      <c r="C140">
+        <v>1559</v>
+      </c>
+      <c r="D140">
+        <v>9224</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>44260</v>
+      </c>
+      <c r="B141">
+        <v>7739</v>
+      </c>
+      <c r="C141">
+        <v>1578</v>
+      </c>
+      <c r="D141">
+        <v>9317</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>44261</v>
+      </c>
+      <c r="B142">
+        <v>7836</v>
+      </c>
+      <c r="C142">
+        <v>1589</v>
+      </c>
+      <c r="D142">
+        <v>9425</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>44262</v>
+      </c>
+      <c r="B143">
+        <v>7921</v>
+      </c>
+      <c r="C143">
+        <v>1594</v>
+      </c>
+      <c r="D143">
+        <v>9515</v>
       </c>
     </row>
   </sheetData>
@@ -2116,15 +2410,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -2335,6 +2620,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E17842-9B7C-4649-B236-529FBDA6159D}">
   <ds:schemaRefs>
@@ -2353,28 +2647,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BC76BBD-F9D4-4B77-8CAA-0D81C87A9AF1}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80E62931-03CD-4378-85D9-C017B672E38C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
-    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Deaths/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
+++ b/Deaths/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/Deaths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_242B332E13B103BB156855F4CE0E46716C100010" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0962A82F-0796-4674-A0F3-F9C0EF6D25FF}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_242B332E13B103BB156855F4CE0E46716C100010" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1EFF46CD-6E23-4876-9B1C-7CB2280E6F48}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2398,18 +2398,236 @@
         <v>9515</v>
       </c>
     </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>44263</v>
+      </c>
+      <c r="B144">
+        <v>8037</v>
+      </c>
+      <c r="C144">
+        <v>1601</v>
+      </c>
+      <c r="D144">
+        <v>9638</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>44264</v>
+      </c>
+      <c r="B145">
+        <v>8146</v>
+      </c>
+      <c r="C145">
+        <v>1614</v>
+      </c>
+      <c r="D145">
+        <v>9760</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>44265</v>
+      </c>
+      <c r="B146">
+        <v>8244</v>
+      </c>
+      <c r="C146">
+        <v>1632</v>
+      </c>
+      <c r="D146">
+        <v>9876</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>44266</v>
+      </c>
+      <c r="B147">
+        <v>8346</v>
+      </c>
+      <c r="C147">
+        <v>1639</v>
+      </c>
+      <c r="D147">
+        <v>9985</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>44267</v>
+      </c>
+      <c r="B148">
+        <v>8440</v>
+      </c>
+      <c r="C148">
+        <v>1649</v>
+      </c>
+      <c r="D148">
+        <v>10089</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>44268</v>
+      </c>
+      <c r="B149">
+        <v>8528</v>
+      </c>
+      <c r="C149">
+        <v>1657</v>
+      </c>
+      <c r="D149">
+        <v>10185</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>44269</v>
+      </c>
+      <c r="B150">
+        <v>8605</v>
+      </c>
+      <c r="C150">
+        <v>1666</v>
+      </c>
+      <c r="D150">
+        <v>10271</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>44270</v>
+      </c>
+      <c r="B151">
+        <v>8669</v>
+      </c>
+      <c r="C151">
+        <v>1673</v>
+      </c>
+      <c r="D151">
+        <v>10342</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>44271</v>
+      </c>
+      <c r="B152">
+        <v>8738</v>
+      </c>
+      <c r="C152">
+        <v>1687</v>
+      </c>
+      <c r="D152">
+        <v>10425</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>44272</v>
+      </c>
+      <c r="B153">
+        <v>8814</v>
+      </c>
+      <c r="C153">
+        <v>1694</v>
+      </c>
+      <c r="D153">
+        <v>10508</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>44273</v>
+      </c>
+      <c r="B154">
+        <v>8894</v>
+      </c>
+      <c r="C154">
+        <v>1707</v>
+      </c>
+      <c r="D154">
+        <v>10601</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>44274</v>
+      </c>
+      <c r="B155">
+        <v>8978</v>
+      </c>
+      <c r="C155">
+        <v>1710</v>
+      </c>
+      <c r="D155">
+        <v>10688</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>44275</v>
+      </c>
+      <c r="B156">
+        <v>9044</v>
+      </c>
+      <c r="C156">
+        <v>1710</v>
+      </c>
+      <c r="D156">
+        <v>10754</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>44276</v>
+      </c>
+      <c r="B157">
+        <v>9104</v>
+      </c>
+      <c r="C157">
+        <v>1716</v>
+      </c>
+      <c r="D157">
+        <v>10820</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>44277</v>
+      </c>
+      <c r="B158">
+        <v>9190</v>
+      </c>
+      <c r="C158">
+        <v>1718</v>
+      </c>
+      <c r="D158">
+        <v>10908</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>44278</v>
+      </c>
+      <c r="B159">
+        <v>9260</v>
+      </c>
+      <c r="C159">
+        <v>1718</v>
+      </c>
+      <c r="D159">
+        <v>10978</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -2620,6 +2838,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2630,6 +2854,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BC76BBD-F9D4-4B77-8CAA-0D81C87A9AF1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
+    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E17842-9B7C-4649-B236-529FBDA6159D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -2646,10 +2889,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BC76BBD-F9D4-4B77-8CAA-0D81C87A9AF1}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
   <ds:schemaRefs>

--- a/Deaths/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
+++ b/Deaths/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/Deaths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_242B332E13B103BB156855F4CE0E46716C100010" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1EFF46CD-6E23-4876-9B1C-7CB2280E6F48}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_242B332E13B103BB156855F4CE0E46716C100010" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AEE4FDD1-7A0E-47DD-AD34-6E8631CCBD0A}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,11 +400,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="A159" sqref="A159"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2622,12 +2620,326 @@
         <v>10978</v>
       </c>
     </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>44279</v>
+      </c>
+      <c r="B160">
+        <v>9313</v>
+      </c>
+      <c r="C160">
+        <v>1733</v>
+      </c>
+      <c r="D160">
+        <v>11046</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>44280</v>
+      </c>
+      <c r="B161">
+        <v>9373</v>
+      </c>
+      <c r="C161">
+        <v>1742</v>
+      </c>
+      <c r="D161">
+        <v>11115</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>44281</v>
+      </c>
+      <c r="B162">
+        <v>9426</v>
+      </c>
+      <c r="C162">
+        <v>1745</v>
+      </c>
+      <c r="D162">
+        <v>11171</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>44282</v>
+      </c>
+      <c r="B163">
+        <v>9496</v>
+      </c>
+      <c r="C163">
+        <v>1752</v>
+      </c>
+      <c r="D163">
+        <v>11248</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>44283</v>
+      </c>
+      <c r="B164">
+        <v>9542</v>
+      </c>
+      <c r="C164">
+        <v>1759</v>
+      </c>
+      <c r="D164">
+        <v>11301</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>44284</v>
+      </c>
+      <c r="B165">
+        <v>9624</v>
+      </c>
+      <c r="C165">
+        <v>1782</v>
+      </c>
+      <c r="D165">
+        <v>11406</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>44285</v>
+      </c>
+      <c r="B166">
+        <v>9719</v>
+      </c>
+      <c r="C166">
+        <v>1813</v>
+      </c>
+      <c r="D166">
+        <v>11532</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>44286</v>
+      </c>
+      <c r="B167">
+        <v>9790</v>
+      </c>
+      <c r="C167">
+        <v>1837</v>
+      </c>
+      <c r="D167">
+        <v>11627</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B168">
+        <v>9877</v>
+      </c>
+      <c r="C168">
+        <v>1856</v>
+      </c>
+      <c r="D168">
+        <v>11733</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>44288</v>
+      </c>
+      <c r="B169">
+        <v>9948</v>
+      </c>
+      <c r="C169">
+        <v>1861</v>
+      </c>
+      <c r="D169">
+        <v>11809</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B170">
+        <v>10025</v>
+      </c>
+      <c r="C170">
+        <v>1868</v>
+      </c>
+      <c r="D170">
+        <v>11893</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B171">
+        <v>10094</v>
+      </c>
+      <c r="C171">
+        <v>1877</v>
+      </c>
+      <c r="D171">
+        <v>11971</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>44291</v>
+      </c>
+      <c r="B172">
+        <v>10156</v>
+      </c>
+      <c r="C172">
+        <v>1888</v>
+      </c>
+      <c r="D172">
+        <v>12044</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B173">
+        <v>10243</v>
+      </c>
+      <c r="C173">
+        <v>1894</v>
+      </c>
+      <c r="D173">
+        <v>12137</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>44293</v>
+      </c>
+      <c r="B174">
+        <v>10322</v>
+      </c>
+      <c r="C174">
+        <v>1918</v>
+      </c>
+      <c r="D174">
+        <v>12240</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>44294</v>
+      </c>
+      <c r="B175">
+        <v>10411</v>
+      </c>
+      <c r="C175">
+        <v>1949</v>
+      </c>
+      <c r="D175">
+        <v>12360</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>44295</v>
+      </c>
+      <c r="B176">
+        <v>10487</v>
+      </c>
+      <c r="C176">
+        <v>1976</v>
+      </c>
+      <c r="D176">
+        <v>12463</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>44296</v>
+      </c>
+      <c r="B177">
+        <v>10552</v>
+      </c>
+      <c r="C177">
+        <v>1990</v>
+      </c>
+      <c r="D177">
+        <v>12542</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>44297</v>
+      </c>
+      <c r="B178">
+        <v>10565</v>
+      </c>
+      <c r="C178">
+        <v>2002</v>
+      </c>
+      <c r="D178">
+        <v>12567</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>44298</v>
+      </c>
+      <c r="B179">
+        <v>10716</v>
+      </c>
+      <c r="C179">
+        <v>2043</v>
+      </c>
+      <c r="D179">
+        <v>12759</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>44299</v>
+      </c>
+      <c r="B180">
+        <v>10798</v>
+      </c>
+      <c r="C180">
+        <v>2060</v>
+      </c>
+      <c r="D180">
+        <v>12858</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>44300</v>
+      </c>
+      <c r="B181">
+        <v>10877</v>
+      </c>
+      <c r="C181">
+        <v>2090</v>
+      </c>
+      <c r="D181">
+        <v>12967</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -2838,12 +3150,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2854,6 +3160,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E17842-9B7C-4649-B236-529FBDA6159D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BC76BBD-F9D4-4B77-8CAA-0D81C87A9AF1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2872,23 +3195,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E17842-9B7C-4649-B236-529FBDA6159D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
   <ds:schemaRefs>

--- a/Deaths/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
+++ b/Deaths/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/Deaths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_242B332E13B103BB156855F4CE0E46716C100010" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AEE4FDD1-7A0E-47DD-AD34-6E8631CCBD0A}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_242B332E13B103BB156855F4CE0E46716C100010" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{82956A64-29AE-4534-A6F2-C2F7356A784D}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,9 +400,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:D189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="A189" sqref="A189"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2928,18 +2930,124 @@
         <v>12967</v>
       </c>
     </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>44301</v>
+      </c>
+      <c r="B182">
+        <v>10970</v>
+      </c>
+      <c r="C182">
+        <v>2111</v>
+      </c>
+      <c r="D182">
+        <v>13081</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>44302</v>
+      </c>
+      <c r="B183">
+        <v>11043</v>
+      </c>
+      <c r="C183">
+        <v>2121</v>
+      </c>
+      <c r="D183">
+        <v>13164</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>44303</v>
+      </c>
+      <c r="B184">
+        <v>11106</v>
+      </c>
+      <c r="C184">
+        <v>2135</v>
+      </c>
+      <c r="D184">
+        <v>13241</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>44304</v>
+      </c>
+      <c r="B185">
+        <v>11172</v>
+      </c>
+      <c r="C185">
+        <v>2146</v>
+      </c>
+      <c r="D185">
+        <v>13318</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>44305</v>
+      </c>
+      <c r="B186">
+        <v>11244</v>
+      </c>
+      <c r="C186">
+        <v>2150</v>
+      </c>
+      <c r="D186">
+        <v>13394</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>44306</v>
+      </c>
+      <c r="B187">
+        <v>11304</v>
+      </c>
+      <c r="C187">
+        <v>2161</v>
+      </c>
+      <c r="D187">
+        <v>13465</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>44307</v>
+      </c>
+      <c r="B188">
+        <v>11357</v>
+      </c>
+      <c r="C188">
+        <v>2175</v>
+      </c>
+      <c r="D188">
+        <v>13532</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>44308</v>
+      </c>
+      <c r="B189">
+        <v>11405</v>
+      </c>
+      <c r="C189">
+        <v>2185</v>
+      </c>
+      <c r="D189">
+        <v>13590</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -3150,6 +3258,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3160,23 +3274,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E17842-9B7C-4649-B236-529FBDA6159D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BC76BBD-F9D4-4B77-8CAA-0D81C87A9AF1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3195,6 +3292,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E17842-9B7C-4649-B236-529FBDA6159D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
   <ds:schemaRefs>

--- a/Deaths/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
+++ b/Deaths/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/Deaths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_242B332E13B103BB156855F4CE0E46716C100010" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{82956A64-29AE-4534-A6F2-C2F7356A784D}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_242B332E13B103BB156855F4CE0E46716C100010" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DF1501B1-5BB7-4BE5-AC19-C873289DC6A2}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,11 +400,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D189"/>
+  <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="A189" sqref="A189"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3042,12 +3040,466 @@
         <v>13590</v>
       </c>
     </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>44309</v>
+      </c>
+      <c r="B190">
+        <v>11458</v>
+      </c>
+      <c r="C190">
+        <v>2197</v>
+      </c>
+      <c r="D190">
+        <v>13655</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>44310</v>
+      </c>
+      <c r="B191">
+        <v>11495</v>
+      </c>
+      <c r="C191">
+        <v>2210</v>
+      </c>
+      <c r="D191">
+        <v>13705</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>44311</v>
+      </c>
+      <c r="B192">
+        <v>11531</v>
+      </c>
+      <c r="C192">
+        <v>2227</v>
+      </c>
+      <c r="D192">
+        <v>13758</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>44312</v>
+      </c>
+      <c r="B193">
+        <v>11572</v>
+      </c>
+      <c r="C193">
+        <v>2236</v>
+      </c>
+      <c r="D193">
+        <v>13808</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>44313</v>
+      </c>
+      <c r="B194">
+        <v>11611</v>
+      </c>
+      <c r="C194">
+        <v>2247</v>
+      </c>
+      <c r="D194">
+        <v>13858</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>44314</v>
+      </c>
+      <c r="B195">
+        <v>11647</v>
+      </c>
+      <c r="C195">
+        <v>2255</v>
+      </c>
+      <c r="D195">
+        <v>13902</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>44315</v>
+      </c>
+      <c r="B196">
+        <v>11684</v>
+      </c>
+      <c r="C196">
+        <v>2266</v>
+      </c>
+      <c r="D196">
+        <v>13950</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>44316</v>
+      </c>
+      <c r="B197">
+        <v>11732</v>
+      </c>
+      <c r="C197">
+        <v>2273</v>
+      </c>
+      <c r="D197">
+        <v>14005</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B198">
+        <v>11766</v>
+      </c>
+      <c r="C198">
+        <v>2285</v>
+      </c>
+      <c r="D198">
+        <v>14051</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>44318</v>
+      </c>
+      <c r="B199">
+        <v>11807</v>
+      </c>
+      <c r="C199">
+        <v>2292</v>
+      </c>
+      <c r="D199">
+        <v>14099</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>44319</v>
+      </c>
+      <c r="B200">
+        <v>11855</v>
+      </c>
+      <c r="C200">
+        <v>2302</v>
+      </c>
+      <c r="D200">
+        <v>14157</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>44320</v>
+      </c>
+      <c r="B201">
+        <v>11886</v>
+      </c>
+      <c r="C201">
+        <v>2316</v>
+      </c>
+      <c r="D201">
+        <v>14202</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>44321</v>
+      </c>
+      <c r="B202">
+        <v>11920</v>
+      </c>
+      <c r="C202">
+        <v>2324</v>
+      </c>
+      <c r="D202">
+        <v>14244</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>44322</v>
+      </c>
+      <c r="B203">
+        <v>11920</v>
+      </c>
+      <c r="C203">
+        <v>2335</v>
+      </c>
+      <c r="D203">
+        <v>14255</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>44323</v>
+      </c>
+      <c r="B204">
+        <v>11990</v>
+      </c>
+      <c r="C204">
+        <v>2339</v>
+      </c>
+      <c r="D204">
+        <v>14329</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>44324</v>
+      </c>
+      <c r="B205">
+        <v>12019</v>
+      </c>
+      <c r="C205">
+        <v>2346</v>
+      </c>
+      <c r="D205">
+        <v>14365</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>44325</v>
+      </c>
+      <c r="B206">
+        <v>12051</v>
+      </c>
+      <c r="C206">
+        <v>2351</v>
+      </c>
+      <c r="D206">
+        <v>14402</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>44326</v>
+      </c>
+      <c r="B207">
+        <v>12077</v>
+      </c>
+      <c r="C207">
+        <v>2359</v>
+      </c>
+      <c r="D207">
+        <v>14436</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>44327</v>
+      </c>
+      <c r="B208">
+        <v>12096</v>
+      </c>
+      <c r="C208">
+        <v>2370</v>
+      </c>
+      <c r="D208">
+        <v>14466</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>44328</v>
+      </c>
+      <c r="B209">
+        <v>12135</v>
+      </c>
+      <c r="C209">
+        <v>2380</v>
+      </c>
+      <c r="D209">
+        <v>14515</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>44329</v>
+      </c>
+      <c r="B210">
+        <v>12168</v>
+      </c>
+      <c r="C210">
+        <v>2387</v>
+      </c>
+      <c r="D210">
+        <v>14555</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>44330</v>
+      </c>
+      <c r="B211">
+        <v>12203</v>
+      </c>
+      <c r="C211">
+        <v>2392</v>
+      </c>
+      <c r="D211">
+        <v>14595</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>44331</v>
+      </c>
+      <c r="B212">
+        <v>12224</v>
+      </c>
+      <c r="C212">
+        <v>2395</v>
+      </c>
+      <c r="D212">
+        <v>14619</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>44332</v>
+      </c>
+      <c r="B213">
+        <v>12238</v>
+      </c>
+      <c r="C213">
+        <v>2402</v>
+      </c>
+      <c r="D213">
+        <v>14640</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>44333</v>
+      </c>
+      <c r="B214">
+        <v>12248</v>
+      </c>
+      <c r="C214">
+        <v>2403</v>
+      </c>
+      <c r="D214">
+        <v>14651</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>44334</v>
+      </c>
+      <c r="B215">
+        <v>12262</v>
+      </c>
+      <c r="C215">
+        <v>2405</v>
+      </c>
+      <c r="D215">
+        <v>14667</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>44335</v>
+      </c>
+      <c r="B216">
+        <v>12272</v>
+      </c>
+      <c r="C216">
+        <v>2405</v>
+      </c>
+      <c r="D216">
+        <v>14677</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>44336</v>
+      </c>
+      <c r="B217">
+        <v>12280</v>
+      </c>
+      <c r="C217">
+        <v>2406</v>
+      </c>
+      <c r="D217">
+        <v>14686</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>44337</v>
+      </c>
+      <c r="B218">
+        <v>12286</v>
+      </c>
+      <c r="C218">
+        <v>2406</v>
+      </c>
+      <c r="D218">
+        <v>14692</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>44338</v>
+      </c>
+      <c r="B219">
+        <v>12292</v>
+      </c>
+      <c r="C219">
+        <v>2406</v>
+      </c>
+      <c r="D219">
+        <v>14698</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>44339</v>
+      </c>
+      <c r="B220">
+        <v>12290</v>
+      </c>
+      <c r="C220">
+        <v>2407</v>
+      </c>
+      <c r="D220">
+        <v>14697</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>44340</v>
+      </c>
+      <c r="B221">
+        <v>12301</v>
+      </c>
+      <c r="C221">
+        <v>2407</v>
+      </c>
+      <c r="D221">
+        <v>14708</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -3258,12 +3710,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3274,6 +3720,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E17842-9B7C-4649-B236-529FBDA6159D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BC76BBD-F9D4-4B77-8CAA-0D81C87A9AF1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3292,23 +3755,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E17842-9B7C-4649-B236-529FBDA6159D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
   <ds:schemaRefs>

--- a/Deaths/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
+++ b/Deaths/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/Deaths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_242B332E13B103BB156855F4CE0E46716C100010" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DF1501B1-5BB7-4BE5-AC19-C873289DC6A2}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_242B332E13B103BB156855F4CE0E46716C100010" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C131DC1-6BEC-4FCF-907E-C007810A9DA4}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,9 +400,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D221"/>
+  <dimension ref="A1:D233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="A233" sqref="A233"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3488,15 +3490,186 @@
         <v>14708</v>
       </c>
     </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>44341</v>
+      </c>
+      <c r="B222">
+        <v>12312</v>
+      </c>
+      <c r="C222">
+        <v>2410</v>
+      </c>
+      <c r="D222">
+        <v>14722</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>44342</v>
+      </c>
+      <c r="B223">
+        <v>12320</v>
+      </c>
+      <c r="C223">
+        <v>2413</v>
+      </c>
+      <c r="D223">
+        <v>14733</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>44343</v>
+      </c>
+      <c r="B224">
+        <v>12333</v>
+      </c>
+      <c r="C224">
+        <v>2415</v>
+      </c>
+      <c r="D224">
+        <v>14748</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>44344</v>
+      </c>
+      <c r="B225">
+        <v>12335</v>
+      </c>
+      <c r="C225">
+        <v>2416</v>
+      </c>
+      <c r="D225">
+        <v>14751</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>44345</v>
+      </c>
+      <c r="B226">
+        <v>12339</v>
+      </c>
+      <c r="C226">
+        <v>2416</v>
+      </c>
+      <c r="D226">
+        <v>14755</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>44346</v>
+      </c>
+      <c r="B227">
+        <v>12343</v>
+      </c>
+      <c r="C227">
+        <v>2417</v>
+      </c>
+      <c r="D227">
+        <v>14760</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>44347</v>
+      </c>
+      <c r="B228">
+        <v>12353</v>
+      </c>
+      <c r="C228">
+        <v>2417</v>
+      </c>
+      <c r="D228">
+        <v>14770</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B229">
+        <v>12366</v>
+      </c>
+      <c r="C229">
+        <v>2417</v>
+      </c>
+      <c r="D229">
+        <v>14783</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>44349</v>
+      </c>
+      <c r="B230">
+        <v>12375</v>
+      </c>
+      <c r="C230">
+        <v>2418</v>
+      </c>
+      <c r="D230">
+        <v>14793</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>44350</v>
+      </c>
+      <c r="B231">
+        <v>12382</v>
+      </c>
+      <c r="C231">
+        <v>2420</v>
+      </c>
+      <c r="D231">
+        <v>14802</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>44351</v>
+      </c>
+      <c r="B232">
+        <v>12395</v>
+      </c>
+      <c r="C232">
+        <v>2423</v>
+      </c>
+      <c r="D232">
+        <v>14818</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B233">
+        <v>12404</v>
+      </c>
+      <c r="C233">
+        <v>2423</v>
+      </c>
+      <c r="D233">
+        <v>14827</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3711,27 +3884,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E17842-9B7C-4649-B236-529FBDA6159D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3756,9 +3917,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E17842-9B7C-4649-B236-529FBDA6159D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Deaths/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
+++ b/Deaths/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/Deaths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_242B332E13B103BB156855F4CE0E46716C100010" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C131DC1-6BEC-4FCF-907E-C007810A9DA4}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_242B332E13B103BB156855F4CE0E46716C100010" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D9FA56F-FAFA-4FDD-8C84-51C6140FB1B3}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D233"/>
+  <dimension ref="A1:D273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="A233" sqref="A233"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="A273" sqref="A273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3656,6 +3656,566 @@
       </c>
       <c r="D233">
         <v>14827</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>44353</v>
+      </c>
+      <c r="B234">
+        <v>12414</v>
+      </c>
+      <c r="C234">
+        <v>2426</v>
+      </c>
+      <c r="D234">
+        <v>14840</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B235">
+        <v>12423</v>
+      </c>
+      <c r="C235">
+        <v>2426</v>
+      </c>
+      <c r="D235">
+        <v>14849</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>44355</v>
+      </c>
+      <c r="B236">
+        <v>12430</v>
+      </c>
+      <c r="C236">
+        <v>2426</v>
+      </c>
+      <c r="D236">
+        <v>14856</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>44356</v>
+      </c>
+      <c r="B237">
+        <v>12433</v>
+      </c>
+      <c r="C237">
+        <v>2426</v>
+      </c>
+      <c r="D237">
+        <v>14859</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>44357</v>
+      </c>
+      <c r="B238">
+        <v>12433</v>
+      </c>
+      <c r="C238">
+        <v>2426</v>
+      </c>
+      <c r="D238">
+        <v>14859</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>44358</v>
+      </c>
+      <c r="B239">
+        <v>12436</v>
+      </c>
+      <c r="C239">
+        <v>2427</v>
+      </c>
+      <c r="D239">
+        <v>14863</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B240">
+        <v>12439</v>
+      </c>
+      <c r="C240">
+        <v>2427</v>
+      </c>
+      <c r="D240">
+        <v>14866</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>44360</v>
+      </c>
+      <c r="B241">
+        <v>12441</v>
+      </c>
+      <c r="C241">
+        <v>2428</v>
+      </c>
+      <c r="D241">
+        <v>14869</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>44361</v>
+      </c>
+      <c r="B242">
+        <v>12446</v>
+      </c>
+      <c r="C242">
+        <v>2430</v>
+      </c>
+      <c r="D242">
+        <v>14876</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>44362</v>
+      </c>
+      <c r="B243">
+        <v>12456</v>
+      </c>
+      <c r="C243">
+        <v>2433</v>
+      </c>
+      <c r="D243">
+        <v>14889</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B244">
+        <v>12464</v>
+      </c>
+      <c r="C244">
+        <v>2437</v>
+      </c>
+      <c r="D244">
+        <v>14901</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>44364</v>
+      </c>
+      <c r="B245">
+        <v>12478</v>
+      </c>
+      <c r="C245">
+        <v>2442</v>
+      </c>
+      <c r="D245">
+        <v>14920</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>44365</v>
+      </c>
+      <c r="B246">
+        <v>12486</v>
+      </c>
+      <c r="C246">
+        <v>2446</v>
+      </c>
+      <c r="D246">
+        <v>14932</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>44366</v>
+      </c>
+      <c r="B247">
+        <v>12492</v>
+      </c>
+      <c r="C247">
+        <v>2450</v>
+      </c>
+      <c r="D247">
+        <v>14942</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>44367</v>
+      </c>
+      <c r="B248">
+        <v>12496</v>
+      </c>
+      <c r="C248">
+        <v>2450</v>
+      </c>
+      <c r="D248">
+        <v>14946</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>44368</v>
+      </c>
+      <c r="B249">
+        <v>12502</v>
+      </c>
+      <c r="C249">
+        <v>2450</v>
+      </c>
+      <c r="D249">
+        <v>14952</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>44369</v>
+      </c>
+      <c r="B250">
+        <v>12502</v>
+      </c>
+      <c r="C250">
+        <v>2450</v>
+      </c>
+      <c r="D250">
+        <v>14952</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>44370</v>
+      </c>
+      <c r="B251">
+        <v>12502</v>
+      </c>
+      <c r="C251">
+        <v>2450</v>
+      </c>
+      <c r="D251">
+        <v>14952</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B252">
+        <v>12505</v>
+      </c>
+      <c r="C252">
+        <v>2451</v>
+      </c>
+      <c r="D252">
+        <v>14956</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>44372</v>
+      </c>
+      <c r="B253">
+        <v>12505</v>
+      </c>
+      <c r="C253">
+        <v>2451</v>
+      </c>
+      <c r="D253">
+        <v>14956</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B254">
+        <v>12505</v>
+      </c>
+      <c r="C254">
+        <v>2451</v>
+      </c>
+      <c r="D254">
+        <v>14956</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B255">
+        <v>12509</v>
+      </c>
+      <c r="C255">
+        <v>2451</v>
+      </c>
+      <c r="D255">
+        <v>14960</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B256">
+        <v>12510</v>
+      </c>
+      <c r="C256">
+        <v>2451</v>
+      </c>
+      <c r="D256">
+        <v>14961</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B257">
+        <v>12510</v>
+      </c>
+      <c r="C257">
+        <v>2451</v>
+      </c>
+      <c r="D257">
+        <v>14961</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B258">
+        <v>12511</v>
+      </c>
+      <c r="C258">
+        <v>2451</v>
+      </c>
+      <c r="D258">
+        <v>14962</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B259">
+        <v>12511</v>
+      </c>
+      <c r="C259">
+        <v>2451</v>
+      </c>
+      <c r="D259">
+        <v>14962</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B260">
+        <v>12513</v>
+      </c>
+      <c r="C260">
+        <v>2451</v>
+      </c>
+      <c r="D260">
+        <v>14964</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B261">
+        <v>12513</v>
+      </c>
+      <c r="C261">
+        <v>2451</v>
+      </c>
+      <c r="D261">
+        <v>14964</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B262">
+        <v>12513</v>
+      </c>
+      <c r="C262">
+        <v>2451</v>
+      </c>
+      <c r="D262">
+        <v>14964</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B263">
+        <v>12514</v>
+      </c>
+      <c r="C263">
+        <v>2451</v>
+      </c>
+      <c r="D263">
+        <v>14965</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>44383</v>
+      </c>
+      <c r="B264">
+        <v>12516</v>
+      </c>
+      <c r="C264">
+        <v>2451</v>
+      </c>
+      <c r="D264">
+        <v>14967</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>44384</v>
+      </c>
+      <c r="B265">
+        <v>12516</v>
+      </c>
+      <c r="C265">
+        <v>2451</v>
+      </c>
+      <c r="D265">
+        <v>14967</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>44385</v>
+      </c>
+      <c r="B266">
+        <v>12517</v>
+      </c>
+      <c r="C266">
+        <v>2451</v>
+      </c>
+      <c r="D266">
+        <v>14968</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>44386</v>
+      </c>
+      <c r="B267">
+        <v>12519</v>
+      </c>
+      <c r="C267">
+        <v>2452</v>
+      </c>
+      <c r="D267">
+        <v>14971</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>44387</v>
+      </c>
+      <c r="B268">
+        <v>12519</v>
+      </c>
+      <c r="C268">
+        <v>2452</v>
+      </c>
+      <c r="D268">
+        <v>14971</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>44388</v>
+      </c>
+      <c r="B269">
+        <v>12521</v>
+      </c>
+      <c r="C269">
+        <v>2452</v>
+      </c>
+      <c r="D269">
+        <v>14973</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>44389</v>
+      </c>
+      <c r="B270">
+        <v>12522</v>
+      </c>
+      <c r="C270">
+        <v>2453</v>
+      </c>
+      <c r="D270">
+        <v>14975</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>44390</v>
+      </c>
+      <c r="B271">
+        <v>12523</v>
+      </c>
+      <c r="C271">
+        <v>2453</v>
+      </c>
+      <c r="D271">
+        <v>14976</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B272">
+        <v>12524</v>
+      </c>
+      <c r="C272">
+        <v>2454</v>
+      </c>
+      <c r="D272">
+        <v>14978</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B273">
+        <v>12524</v>
+      </c>
+      <c r="C273">
+        <v>2454</v>
+      </c>
+      <c r="D273">
+        <v>14978</v>
       </c>
     </row>
   </sheetData>
@@ -3898,22 +4458,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BC76BBD-F9D4-4B77-8CAA-0D81C87A9AF1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
-    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF375DF8-6D87-424F-B67D-2921159495E2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Deaths/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
+++ b/Deaths/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/Deaths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_242B332E13B103BB156855F4CE0E46716C100010" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D9FA56F-FAFA-4FDD-8C84-51C6140FB1B3}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_242B332E13B103BB156855F4CE0E46716C100010" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EF87387-6440-438C-9315-2565395A9F7D}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,18 +400,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D273"/>
+  <dimension ref="A1:D369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="A273" sqref="A273"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44098</v>
       </c>
@@ -436,7 +434,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44099</v>
       </c>
@@ -447,7 +445,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44102</v>
       </c>
@@ -458,7 +456,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44103</v>
       </c>
@@ -469,7 +467,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44106</v>
       </c>
@@ -480,7 +478,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44107</v>
       </c>
@@ -494,7 +492,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44111</v>
       </c>
@@ -508,7 +506,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44116</v>
       </c>
@@ -522,7 +520,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44117</v>
       </c>
@@ -536,7 +534,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44118</v>
       </c>
@@ -550,7 +548,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44120</v>
       </c>
@@ -564,7 +562,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44121</v>
       </c>
@@ -578,7 +576,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44122</v>
       </c>
@@ -592,7 +590,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44124</v>
       </c>
@@ -606,7 +604,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44125</v>
       </c>
@@ -620,7 +618,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44126</v>
       </c>
@@ -634,7 +632,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44128</v>
       </c>
@@ -648,7 +646,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44129</v>
       </c>
@@ -662,7 +660,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44130</v>
       </c>
@@ -676,7 +674,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44131</v>
       </c>
@@ -690,7 +688,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44132</v>
       </c>
@@ -704,7 +702,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44133</v>
       </c>
@@ -718,7 +716,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44134</v>
       </c>
@@ -732,7 +730,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44137</v>
       </c>
@@ -746,7 +744,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44138</v>
       </c>
@@ -760,7 +758,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44139</v>
       </c>
@@ -774,7 +772,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44140</v>
       </c>
@@ -788,7 +786,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44141</v>
       </c>
@@ -802,7 +800,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44143</v>
       </c>
@@ -816,7 +814,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44144</v>
       </c>
@@ -830,7 +828,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44145</v>
       </c>
@@ -844,7 +842,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44146</v>
       </c>
@@ -858,7 +856,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44147</v>
       </c>
@@ -872,7 +870,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44148</v>
       </c>
@@ -886,7 +884,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44150</v>
       </c>
@@ -900,7 +898,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44151</v>
       </c>
@@ -914,7 +912,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44152</v>
       </c>
@@ -928,7 +926,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44153</v>
       </c>
@@ -942,7 +940,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44154</v>
       </c>
@@ -956,7 +954,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44155</v>
       </c>
@@ -970,7 +968,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44157</v>
       </c>
@@ -984,7 +982,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44158</v>
       </c>
@@ -998,7 +996,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44160</v>
       </c>
@@ -1012,7 +1010,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44161</v>
       </c>
@@ -1026,7 +1024,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44162</v>
       </c>
@@ -1040,7 +1038,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44163</v>
       </c>
@@ -1054,7 +1052,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44164</v>
       </c>
@@ -1068,7 +1066,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44165</v>
       </c>
@@ -1082,7 +1080,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44166</v>
       </c>
@@ -1096,7 +1094,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44167</v>
       </c>
@@ -1110,7 +1108,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44168</v>
       </c>
@@ -1124,7 +1122,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44169</v>
       </c>
@@ -1138,7 +1136,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44170</v>
       </c>
@@ -1152,7 +1150,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44171</v>
       </c>
@@ -1166,7 +1164,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44172</v>
       </c>
@@ -1180,7 +1178,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44173</v>
       </c>
@@ -1194,7 +1192,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44174</v>
       </c>
@@ -1208,7 +1206,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44175</v>
       </c>
@@ -1222,7 +1220,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44176</v>
       </c>
@@ -1236,7 +1234,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44177</v>
       </c>
@@ -1250,7 +1248,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44178</v>
       </c>
@@ -1264,7 +1262,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44179</v>
       </c>
@@ -1278,7 +1276,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44180</v>
       </c>
@@ -1292,7 +1290,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44181</v>
       </c>
@@ -1306,7 +1304,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44182</v>
       </c>
@@ -1320,7 +1318,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44183</v>
       </c>
@@ -1334,7 +1332,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44184</v>
       </c>
@@ -1348,7 +1346,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44185</v>
       </c>
@@ -1362,7 +1360,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44186</v>
       </c>
@@ -1376,7 +1374,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44187</v>
       </c>
@@ -1390,7 +1388,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44188</v>
       </c>
@@ -1404,7 +1402,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44191</v>
       </c>
@@ -1418,7 +1416,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44192</v>
       </c>
@@ -1432,7 +1430,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44193</v>
       </c>
@@ -1446,7 +1444,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>44194</v>
       </c>
@@ -1460,7 +1458,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>44195</v>
       </c>
@@ -1474,7 +1472,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>44196</v>
       </c>
@@ -1488,7 +1486,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>44198</v>
       </c>
@@ -1502,7 +1500,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>44199</v>
       </c>
@@ -1516,7 +1514,7 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>44200</v>
       </c>
@@ -1530,7 +1528,7 @@
         <v>3225</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>44201</v>
       </c>
@@ -1544,7 +1542,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>44202</v>
       </c>
@@ -1558,7 +1556,7 @@
         <v>3349</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>44203</v>
       </c>
@@ -1572,7 +1570,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>44204</v>
       </c>
@@ -1586,7 +1584,7 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>44205</v>
       </c>
@@ -1600,7 +1598,7 @@
         <v>3572</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>44206</v>
       </c>
@@ -1614,7 +1612,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>44207</v>
       </c>
@@ -1628,7 +1626,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>44208</v>
       </c>
@@ -1642,7 +1640,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>44209</v>
       </c>
@@ -1656,7 +1654,7 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>44210</v>
       </c>
@@ -1670,7 +1668,7 @@
         <v>4064</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>44211</v>
       </c>
@@ -1684,7 +1682,7 @@
         <v>4123</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>44212</v>
       </c>
@@ -1698,7 +1696,7 @@
         <v>4205</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>44213</v>
       </c>
@@ -1712,7 +1710,7 @@
         <v>4278</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>44214</v>
       </c>
@@ -1726,7 +1724,7 @@
         <v>4416</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44215</v>
       </c>
@@ -1740,7 +1738,7 @@
         <v>4523</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44216</v>
       </c>
@@ -1754,7 +1752,7 @@
         <v>4613</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44217</v>
       </c>
@@ -1768,7 +1766,7 @@
         <v>4722</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44218</v>
       </c>
@@ -1782,7 +1780,7 @@
         <v>4816</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44219</v>
       </c>
@@ -1796,7 +1794,7 @@
         <v>4945</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44220</v>
       </c>
@@ -1810,7 +1808,7 @@
         <v>5037</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44221</v>
       </c>
@@ -1824,7 +1822,7 @@
         <v>5164</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44222</v>
       </c>
@@ -1838,7 +1836,7 @@
         <v>5288</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44223</v>
       </c>
@@ -1852,7 +1850,7 @@
         <v>5357</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44224</v>
       </c>
@@ -1866,7 +1864,7 @@
         <v>5468</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44225</v>
       </c>
@@ -1880,7 +1878,7 @@
         <v>5561</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44226</v>
       </c>
@@ -1894,7 +1892,7 @@
         <v>5674</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44227</v>
       </c>
@@ -1908,7 +1906,7 @@
         <v>5755</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44228</v>
       </c>
@@ -1922,7 +1920,7 @@
         <v>5859</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44229</v>
       </c>
@@ -1936,7 +1934,7 @@
         <v>5971</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44230</v>
       </c>
@@ -1950,7 +1948,7 @@
         <v>6063</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44231</v>
       </c>
@@ -1964,7 +1962,7 @@
         <v>6139</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44232</v>
       </c>
@@ -1978,7 +1976,7 @@
         <v>6251</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44233</v>
       </c>
@@ -1992,7 +1990,7 @@
         <v>6346</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44234</v>
       </c>
@@ -2006,7 +2004,7 @@
         <v>6423</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44235</v>
       </c>
@@ -2020,7 +2018,7 @@
         <v>6571</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44236</v>
       </c>
@@ -2034,7 +2032,7 @@
         <v>6707</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44237</v>
       </c>
@@ -2048,7 +2046,7 @@
         <v>6842</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44238</v>
       </c>
@@ -2062,7 +2060,7 @@
         <v>6954</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44239</v>
       </c>
@@ -2076,7 +2074,7 @@
         <v>7036</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44240</v>
       </c>
@@ -2090,7 +2088,7 @@
         <v>7124</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44241</v>
       </c>
@@ -2104,7 +2102,7 @@
         <v>7201</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44242</v>
       </c>
@@ -2118,7 +2116,7 @@
         <v>7329</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44243</v>
       </c>
@@ -2132,7 +2130,7 @@
         <v>7441</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44244</v>
       </c>
@@ -2146,7 +2144,7 @@
         <v>7559</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44245</v>
       </c>
@@ -2160,7 +2158,7 @@
         <v>7642</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44246</v>
       </c>
@@ -2174,7 +2172,7 @@
         <v>7725</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44247</v>
       </c>
@@ -2188,7 +2186,7 @@
         <v>7818</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44248</v>
       </c>
@@ -2202,7 +2200,7 @@
         <v>7911</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44249</v>
       </c>
@@ -2216,7 +2214,7 @@
         <v>8014</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44250</v>
       </c>
@@ -2230,7 +2228,7 @@
         <v>8135</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44251</v>
       </c>
@@ -2244,7 +2242,7 @@
         <v>8229</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44252</v>
       </c>
@@ -2258,7 +2256,7 @@
         <v>8352</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44253</v>
       </c>
@@ -2272,7 +2270,7 @@
         <v>8495</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44254</v>
       </c>
@@ -2286,7 +2284,7 @@
         <v>8630</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44255</v>
       </c>
@@ -2300,7 +2298,7 @@
         <v>8742</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44256</v>
       </c>
@@ -2314,7 +2312,7 @@
         <v>8885</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44257</v>
       </c>
@@ -2328,7 +2326,7 @@
         <v>9013</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44258</v>
       </c>
@@ -2342,7 +2340,7 @@
         <v>9105</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44259</v>
       </c>
@@ -2356,7 +2354,7 @@
         <v>9224</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44260</v>
       </c>
@@ -2370,7 +2368,7 @@
         <v>9317</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44261</v>
       </c>
@@ -2384,7 +2382,7 @@
         <v>9425</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44262</v>
       </c>
@@ -2398,7 +2396,7 @@
         <v>9515</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44263</v>
       </c>
@@ -2412,7 +2410,7 @@
         <v>9638</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44264</v>
       </c>
@@ -2426,7 +2424,7 @@
         <v>9760</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44265</v>
       </c>
@@ -2440,7 +2438,7 @@
         <v>9876</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44266</v>
       </c>
@@ -2454,7 +2452,7 @@
         <v>9985</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44267</v>
       </c>
@@ -2468,7 +2466,7 @@
         <v>10089</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44268</v>
       </c>
@@ -2482,7 +2480,7 @@
         <v>10185</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44269</v>
       </c>
@@ -2496,7 +2494,7 @@
         <v>10271</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44270</v>
       </c>
@@ -2510,7 +2508,7 @@
         <v>10342</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44271</v>
       </c>
@@ -2524,7 +2522,7 @@
         <v>10425</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44272</v>
       </c>
@@ -2538,7 +2536,7 @@
         <v>10508</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44273</v>
       </c>
@@ -2552,7 +2550,7 @@
         <v>10601</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44274</v>
       </c>
@@ -2566,7 +2564,7 @@
         <v>10688</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44275</v>
       </c>
@@ -2580,7 +2578,7 @@
         <v>10754</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44276</v>
       </c>
@@ -2594,7 +2592,7 @@
         <v>10820</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44277</v>
       </c>
@@ -2608,7 +2606,7 @@
         <v>10908</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44278</v>
       </c>
@@ -2622,7 +2620,7 @@
         <v>10978</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44279</v>
       </c>
@@ -2636,7 +2634,7 @@
         <v>11046</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44280</v>
       </c>
@@ -2650,7 +2648,7 @@
         <v>11115</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44281</v>
       </c>
@@ -2664,7 +2662,7 @@
         <v>11171</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44282</v>
       </c>
@@ -2678,7 +2676,7 @@
         <v>11248</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44283</v>
       </c>
@@ -2692,7 +2690,7 @@
         <v>11301</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44284</v>
       </c>
@@ -2706,7 +2704,7 @@
         <v>11406</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44285</v>
       </c>
@@ -2720,7 +2718,7 @@
         <v>11532</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44286</v>
       </c>
@@ -2734,7 +2732,7 @@
         <v>11627</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44287</v>
       </c>
@@ -2748,7 +2746,7 @@
         <v>11733</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44288</v>
       </c>
@@ -2762,7 +2760,7 @@
         <v>11809</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44289</v>
       </c>
@@ -2776,7 +2774,7 @@
         <v>11893</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44290</v>
       </c>
@@ -2790,7 +2788,7 @@
         <v>11971</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44291</v>
       </c>
@@ -2804,7 +2802,7 @@
         <v>12044</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44292</v>
       </c>
@@ -2818,7 +2816,7 @@
         <v>12137</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44293</v>
       </c>
@@ -2832,7 +2830,7 @@
         <v>12240</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44294</v>
       </c>
@@ -2846,7 +2844,7 @@
         <v>12360</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44295</v>
       </c>
@@ -2860,7 +2858,7 @@
         <v>12463</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44296</v>
       </c>
@@ -2874,7 +2872,7 @@
         <v>12542</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44297</v>
       </c>
@@ -2888,7 +2886,7 @@
         <v>12567</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44298</v>
       </c>
@@ -2902,7 +2900,7 @@
         <v>12759</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44299</v>
       </c>
@@ -2916,7 +2914,7 @@
         <v>12858</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44300</v>
       </c>
@@ -2930,7 +2928,7 @@
         <v>12967</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44301</v>
       </c>
@@ -2944,7 +2942,7 @@
         <v>13081</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44302</v>
       </c>
@@ -2958,7 +2956,7 @@
         <v>13164</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44303</v>
       </c>
@@ -2972,7 +2970,7 @@
         <v>13241</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44304</v>
       </c>
@@ -2986,7 +2984,7 @@
         <v>13318</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44305</v>
       </c>
@@ -3000,7 +2998,7 @@
         <v>13394</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44306</v>
       </c>
@@ -3014,7 +3012,7 @@
         <v>13465</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44307</v>
       </c>
@@ -3028,7 +3026,7 @@
         <v>13532</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44308</v>
       </c>
@@ -3042,7 +3040,7 @@
         <v>13590</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44309</v>
       </c>
@@ -3056,7 +3054,7 @@
         <v>13655</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44310</v>
       </c>
@@ -3070,7 +3068,7 @@
         <v>13705</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44311</v>
       </c>
@@ -3084,7 +3082,7 @@
         <v>13758</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>44312</v>
       </c>
@@ -3098,7 +3096,7 @@
         <v>13808</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>44313</v>
       </c>
@@ -3112,7 +3110,7 @@
         <v>13858</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>44314</v>
       </c>
@@ -3126,7 +3124,7 @@
         <v>13902</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>44315</v>
       </c>
@@ -3140,7 +3138,7 @@
         <v>13950</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>44316</v>
       </c>
@@ -3154,7 +3152,7 @@
         <v>14005</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>44317</v>
       </c>
@@ -3168,7 +3166,7 @@
         <v>14051</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>44318</v>
       </c>
@@ -3182,7 +3180,7 @@
         <v>14099</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44319</v>
       </c>
@@ -3196,7 +3194,7 @@
         <v>14157</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44320</v>
       </c>
@@ -3210,7 +3208,7 @@
         <v>14202</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44321</v>
       </c>
@@ -3224,7 +3222,7 @@
         <v>14244</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44322</v>
       </c>
@@ -3238,7 +3236,7 @@
         <v>14255</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44323</v>
       </c>
@@ -3252,7 +3250,7 @@
         <v>14329</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44324</v>
       </c>
@@ -3266,7 +3264,7 @@
         <v>14365</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44325</v>
       </c>
@@ -3280,7 +3278,7 @@
         <v>14402</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44326</v>
       </c>
@@ -3294,7 +3292,7 @@
         <v>14436</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44327</v>
       </c>
@@ -3308,7 +3306,7 @@
         <v>14466</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44328</v>
       </c>
@@ -3322,7 +3320,7 @@
         <v>14515</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44329</v>
       </c>
@@ -3336,7 +3334,7 @@
         <v>14555</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44330</v>
       </c>
@@ -3350,7 +3348,7 @@
         <v>14595</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44331</v>
       </c>
@@ -3364,7 +3362,7 @@
         <v>14619</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44332</v>
       </c>
@@ -3378,7 +3376,7 @@
         <v>14640</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44333</v>
       </c>
@@ -3392,7 +3390,7 @@
         <v>14651</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44334</v>
       </c>
@@ -3406,7 +3404,7 @@
         <v>14667</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44335</v>
       </c>
@@ -3420,7 +3418,7 @@
         <v>14677</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44336</v>
       </c>
@@ -3434,7 +3432,7 @@
         <v>14686</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44337</v>
       </c>
@@ -3448,7 +3446,7 @@
         <v>14692</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44338</v>
       </c>
@@ -3462,7 +3460,7 @@
         <v>14698</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44339</v>
       </c>
@@ -3476,7 +3474,7 @@
         <v>14697</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44340</v>
       </c>
@@ -3490,7 +3488,7 @@
         <v>14708</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44341</v>
       </c>
@@ -3504,7 +3502,7 @@
         <v>14722</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44342</v>
       </c>
@@ -3518,7 +3516,7 @@
         <v>14733</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44343</v>
       </c>
@@ -3532,7 +3530,7 @@
         <v>14748</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44344</v>
       </c>
@@ -3546,7 +3544,7 @@
         <v>14751</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44345</v>
       </c>
@@ -3560,7 +3558,7 @@
         <v>14755</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>44346</v>
       </c>
@@ -3574,7 +3572,7 @@
         <v>14760</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>44347</v>
       </c>
@@ -3588,7 +3586,7 @@
         <v>14770</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44348</v>
       </c>
@@ -3602,7 +3600,7 @@
         <v>14783</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>44349</v>
       </c>
@@ -3616,7 +3614,7 @@
         <v>14793</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>44350</v>
       </c>
@@ -3630,7 +3628,7 @@
         <v>14802</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44351</v>
       </c>
@@ -3644,7 +3642,7 @@
         <v>14818</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>44352</v>
       </c>
@@ -3658,7 +3656,7 @@
         <v>14827</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>44353</v>
       </c>
@@ -3672,7 +3670,7 @@
         <v>14840</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>44354</v>
       </c>
@@ -3686,7 +3684,7 @@
         <v>14849</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>44355</v>
       </c>
@@ -3700,7 +3698,7 @@
         <v>14856</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44356</v>
       </c>
@@ -3714,7 +3712,7 @@
         <v>14859</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44357</v>
       </c>
@@ -3728,7 +3726,7 @@
         <v>14859</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44358</v>
       </c>
@@ -3742,7 +3740,7 @@
         <v>14863</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44359</v>
       </c>
@@ -3756,7 +3754,7 @@
         <v>14866</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44360</v>
       </c>
@@ -3770,7 +3768,7 @@
         <v>14869</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44361</v>
       </c>
@@ -3784,7 +3782,7 @@
         <v>14876</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44362</v>
       </c>
@@ -3798,7 +3796,7 @@
         <v>14889</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44363</v>
       </c>
@@ -3812,7 +3810,7 @@
         <v>14901</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>44364</v>
       </c>
@@ -3826,7 +3824,7 @@
         <v>14920</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>44365</v>
       </c>
@@ -3840,7 +3838,7 @@
         <v>14932</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>44366</v>
       </c>
@@ -3854,7 +3852,7 @@
         <v>14942</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>44367</v>
       </c>
@@ -3868,7 +3866,7 @@
         <v>14946</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>44368</v>
       </c>
@@ -3882,7 +3880,7 @@
         <v>14952</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>44369</v>
       </c>
@@ -3896,7 +3894,7 @@
         <v>14952</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>44370</v>
       </c>
@@ -3910,7 +3908,7 @@
         <v>14952</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>44371</v>
       </c>
@@ -3924,7 +3922,7 @@
         <v>14956</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>44372</v>
       </c>
@@ -3938,7 +3936,7 @@
         <v>14956</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>44373</v>
       </c>
@@ -3952,7 +3950,7 @@
         <v>14956</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>44374</v>
       </c>
@@ -3966,7 +3964,7 @@
         <v>14960</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>44375</v>
       </c>
@@ -3980,7 +3978,7 @@
         <v>14961</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>44376</v>
       </c>
@@ -3994,7 +3992,7 @@
         <v>14961</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>44377</v>
       </c>
@@ -4008,7 +4006,7 @@
         <v>14962</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>44378</v>
       </c>
@@ -4022,7 +4020,7 @@
         <v>14962</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44379</v>
       </c>
@@ -4036,7 +4034,7 @@
         <v>14964</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>44380</v>
       </c>
@@ -4050,7 +4048,7 @@
         <v>14964</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>44381</v>
       </c>
@@ -4064,7 +4062,7 @@
         <v>14964</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>44382</v>
       </c>
@@ -4078,7 +4076,7 @@
         <v>14965</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>44383</v>
       </c>
@@ -4092,7 +4090,7 @@
         <v>14967</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>44384</v>
       </c>
@@ -4106,7 +4104,7 @@
         <v>14967</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44385</v>
       </c>
@@ -4120,7 +4118,7 @@
         <v>14968</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>44386</v>
       </c>
@@ -4134,7 +4132,7 @@
         <v>14971</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>44387</v>
       </c>
@@ -4148,7 +4146,7 @@
         <v>14971</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>44388</v>
       </c>
@@ -4162,7 +4160,7 @@
         <v>14973</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>44389</v>
       </c>
@@ -4176,7 +4174,7 @@
         <v>14975</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>44390</v>
       </c>
@@ -4190,7 +4188,7 @@
         <v>14976</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>44391</v>
       </c>
@@ -4204,7 +4202,7 @@
         <v>14978</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>44392</v>
       </c>
@@ -4216,6 +4214,1350 @@
       </c>
       <c r="D273">
         <v>14978</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B274">
+        <v>12524</v>
+      </c>
+      <c r="C274">
+        <v>2454</v>
+      </c>
+      <c r="D274">
+        <v>14978</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B275">
+        <v>12524</v>
+      </c>
+      <c r="C275">
+        <v>2454</v>
+      </c>
+      <c r="D275">
+        <v>14978</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>44395</v>
+      </c>
+      <c r="B276">
+        <v>12527</v>
+      </c>
+      <c r="C276">
+        <v>2456</v>
+      </c>
+      <c r="D276">
+        <v>14983</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B277">
+        <v>12531</v>
+      </c>
+      <c r="C277">
+        <v>2457</v>
+      </c>
+      <c r="D277">
+        <v>14988</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B278">
+        <v>12534</v>
+      </c>
+      <c r="C278">
+        <v>2457</v>
+      </c>
+      <c r="D278">
+        <v>14991</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B279">
+        <v>12534</v>
+      </c>
+      <c r="C279">
+        <v>2457</v>
+      </c>
+      <c r="D279">
+        <v>14991</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B280">
+        <v>12534</v>
+      </c>
+      <c r="C280">
+        <v>2457</v>
+      </c>
+      <c r="D280">
+        <v>14991</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B281">
+        <v>12534</v>
+      </c>
+      <c r="C281">
+        <v>2457</v>
+      </c>
+      <c r="D281">
+        <v>14991</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>44401</v>
+      </c>
+      <c r="B282">
+        <v>12534</v>
+      </c>
+      <c r="C282">
+        <v>2457</v>
+      </c>
+      <c r="D282">
+        <v>14991</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>44402</v>
+      </c>
+      <c r="B283">
+        <v>12534</v>
+      </c>
+      <c r="C283">
+        <v>2457</v>
+      </c>
+      <c r="D283">
+        <v>14991</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B284">
+        <v>12534</v>
+      </c>
+      <c r="C284">
+        <v>2457</v>
+      </c>
+      <c r="D284">
+        <v>14991</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B285">
+        <v>12534</v>
+      </c>
+      <c r="C285">
+        <v>2457</v>
+      </c>
+      <c r="D285">
+        <v>14991</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>44405</v>
+      </c>
+      <c r="B286">
+        <v>12536</v>
+      </c>
+      <c r="C286">
+        <v>2457</v>
+      </c>
+      <c r="D286">
+        <v>14993</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>44406</v>
+      </c>
+      <c r="B287">
+        <v>12536</v>
+      </c>
+      <c r="C287">
+        <v>2457</v>
+      </c>
+      <c r="D287">
+        <v>14993</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>44407</v>
+      </c>
+      <c r="B288">
+        <v>12540</v>
+      </c>
+      <c r="C288">
+        <v>2457</v>
+      </c>
+      <c r="D288">
+        <v>14997</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>44408</v>
+      </c>
+      <c r="B289">
+        <v>12540</v>
+      </c>
+      <c r="C289">
+        <v>2457</v>
+      </c>
+      <c r="D289">
+        <v>14997</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B290">
+        <v>12540</v>
+      </c>
+      <c r="C290">
+        <v>2457</v>
+      </c>
+      <c r="D290">
+        <v>14997</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B291">
+        <v>12541</v>
+      </c>
+      <c r="C291">
+        <v>2457</v>
+      </c>
+      <c r="D291">
+        <v>14998</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B292">
+        <v>12541</v>
+      </c>
+      <c r="C292">
+        <v>2457</v>
+      </c>
+      <c r="D292">
+        <v>14998</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>44412</v>
+      </c>
+      <c r="B293">
+        <v>12541</v>
+      </c>
+      <c r="C293">
+        <v>2457</v>
+      </c>
+      <c r="D293">
+        <v>14998</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>44413</v>
+      </c>
+      <c r="B294">
+        <v>12541</v>
+      </c>
+      <c r="C294">
+        <v>2457</v>
+      </c>
+      <c r="D294">
+        <v>14998</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>44414</v>
+      </c>
+      <c r="B295">
+        <v>12541</v>
+      </c>
+      <c r="C295">
+        <v>2457</v>
+      </c>
+      <c r="D295">
+        <v>14998</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>44415</v>
+      </c>
+      <c r="B296">
+        <v>12541</v>
+      </c>
+      <c r="C296">
+        <v>2457</v>
+      </c>
+      <c r="D296">
+        <v>14998</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>44416</v>
+      </c>
+      <c r="B297">
+        <v>12541</v>
+      </c>
+      <c r="C297">
+        <v>2457</v>
+      </c>
+      <c r="D297">
+        <v>14998</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B298">
+        <v>12543</v>
+      </c>
+      <c r="C298">
+        <v>2457</v>
+      </c>
+      <c r="D298">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>44418</v>
+      </c>
+      <c r="B299">
+        <v>12544</v>
+      </c>
+      <c r="C299">
+        <v>2457</v>
+      </c>
+      <c r="D299">
+        <v>15001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>44419</v>
+      </c>
+      <c r="B300">
+        <v>12544</v>
+      </c>
+      <c r="C300">
+        <v>2457</v>
+      </c>
+      <c r="D300">
+        <v>15001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>44420</v>
+      </c>
+      <c r="B301">
+        <v>12544</v>
+      </c>
+      <c r="C301">
+        <v>2457</v>
+      </c>
+      <c r="D301">
+        <v>15001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>44421</v>
+      </c>
+      <c r="B302">
+        <v>12544</v>
+      </c>
+      <c r="C302">
+        <v>2457</v>
+      </c>
+      <c r="D302">
+        <v>15001</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>44422</v>
+      </c>
+      <c r="B303">
+        <v>12544</v>
+      </c>
+      <c r="C303">
+        <v>2457</v>
+      </c>
+      <c r="D303">
+        <v>15001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>44423</v>
+      </c>
+      <c r="B304">
+        <v>12544</v>
+      </c>
+      <c r="C304">
+        <v>2457</v>
+      </c>
+      <c r="D304">
+        <v>15001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B305">
+        <v>12546</v>
+      </c>
+      <c r="C305">
+        <v>2457</v>
+      </c>
+      <c r="D305">
+        <v>15003</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>44425</v>
+      </c>
+      <c r="B306">
+        <v>12547</v>
+      </c>
+      <c r="C306">
+        <v>2457</v>
+      </c>
+      <c r="D306">
+        <v>15004</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>44426</v>
+      </c>
+      <c r="B307">
+        <v>12547</v>
+      </c>
+      <c r="C307">
+        <v>2457</v>
+      </c>
+      <c r="D307">
+        <v>15004</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>44427</v>
+      </c>
+      <c r="B308">
+        <v>12547</v>
+      </c>
+      <c r="C308">
+        <v>2457</v>
+      </c>
+      <c r="D308">
+        <v>15004</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>44428</v>
+      </c>
+      <c r="B309">
+        <v>12547</v>
+      </c>
+      <c r="C309">
+        <v>2457</v>
+      </c>
+      <c r="D309">
+        <v>15004</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>44429</v>
+      </c>
+      <c r="B310">
+        <v>12547</v>
+      </c>
+      <c r="C310">
+        <v>2457</v>
+      </c>
+      <c r="D310">
+        <v>15004</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>44430</v>
+      </c>
+      <c r="B311">
+        <v>12547</v>
+      </c>
+      <c r="C311">
+        <v>2457</v>
+      </c>
+      <c r="D311">
+        <v>15004</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B312">
+        <v>12547</v>
+      </c>
+      <c r="C312">
+        <v>2457</v>
+      </c>
+      <c r="D312">
+        <v>15004</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>44432</v>
+      </c>
+      <c r="B313">
+        <v>12547</v>
+      </c>
+      <c r="C313">
+        <v>2457</v>
+      </c>
+      <c r="D313">
+        <v>15004</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>44433</v>
+      </c>
+      <c r="B314">
+        <v>12547</v>
+      </c>
+      <c r="C314">
+        <v>2457</v>
+      </c>
+      <c r="D314">
+        <v>15004</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>44434</v>
+      </c>
+      <c r="B315">
+        <v>12548</v>
+      </c>
+      <c r="C315">
+        <v>2457</v>
+      </c>
+      <c r="D315">
+        <v>15005</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>44435</v>
+      </c>
+      <c r="B316">
+        <v>12548</v>
+      </c>
+      <c r="C316">
+        <v>2457</v>
+      </c>
+      <c r="D316">
+        <v>15005</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>44436</v>
+      </c>
+      <c r="B317">
+        <v>12548</v>
+      </c>
+      <c r="C317">
+        <v>2457</v>
+      </c>
+      <c r="D317">
+        <v>15005</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>44437</v>
+      </c>
+      <c r="B318">
+        <v>12548</v>
+      </c>
+      <c r="C318">
+        <v>2457</v>
+      </c>
+      <c r="D318">
+        <v>15005</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B319">
+        <v>12548</v>
+      </c>
+      <c r="C319">
+        <v>2457</v>
+      </c>
+      <c r="D319">
+        <v>15005</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>44439</v>
+      </c>
+      <c r="B320">
+        <v>12548</v>
+      </c>
+      <c r="C320">
+        <v>2457</v>
+      </c>
+      <c r="D320">
+        <v>15005</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B321">
+        <v>12548</v>
+      </c>
+      <c r="C321">
+        <v>2457</v>
+      </c>
+      <c r="D321">
+        <v>15005</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>44441</v>
+      </c>
+      <c r="B322">
+        <v>12549</v>
+      </c>
+      <c r="C322">
+        <v>2457</v>
+      </c>
+      <c r="D322">
+        <v>15006</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>44442</v>
+      </c>
+      <c r="B323">
+        <v>12549</v>
+      </c>
+      <c r="C323">
+        <v>2457</v>
+      </c>
+      <c r="D323">
+        <v>15006</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>44443</v>
+      </c>
+      <c r="B324">
+        <v>12549</v>
+      </c>
+      <c r="C324">
+        <v>2457</v>
+      </c>
+      <c r="D324">
+        <v>15006</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>44444</v>
+      </c>
+      <c r="B325">
+        <v>12551</v>
+      </c>
+      <c r="C325">
+        <v>2458</v>
+      </c>
+      <c r="D325">
+        <v>15009</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B326">
+        <v>12552</v>
+      </c>
+      <c r="C326">
+        <v>2458</v>
+      </c>
+      <c r="D326">
+        <v>15010</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>44446</v>
+      </c>
+      <c r="B327">
+        <v>12553</v>
+      </c>
+      <c r="C327">
+        <v>2458</v>
+      </c>
+      <c r="D327">
+        <v>15011</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>44447</v>
+      </c>
+      <c r="B328">
+        <v>12556</v>
+      </c>
+      <c r="C328">
+        <v>2458</v>
+      </c>
+      <c r="D328">
+        <v>15014</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>44448</v>
+      </c>
+      <c r="B329">
+        <v>12558</v>
+      </c>
+      <c r="C329">
+        <v>2458</v>
+      </c>
+      <c r="D329">
+        <v>15016</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>44449</v>
+      </c>
+      <c r="B330">
+        <v>12558</v>
+      </c>
+      <c r="C330">
+        <v>2458</v>
+      </c>
+      <c r="D330">
+        <v>15016</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B331">
+        <v>12558</v>
+      </c>
+      <c r="C331">
+        <v>2458</v>
+      </c>
+      <c r="D331">
+        <v>15016</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>44451</v>
+      </c>
+      <c r="B332">
+        <v>12560</v>
+      </c>
+      <c r="C332">
+        <v>2458</v>
+      </c>
+      <c r="D332">
+        <v>15018</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B333">
+        <v>12562</v>
+      </c>
+      <c r="C333">
+        <v>2458</v>
+      </c>
+      <c r="D333">
+        <v>15020</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <v>44453</v>
+      </c>
+      <c r="B334">
+        <v>12562</v>
+      </c>
+      <c r="C334">
+        <v>2458</v>
+      </c>
+      <c r="D334">
+        <v>15020</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>44454</v>
+      </c>
+      <c r="B335">
+        <v>12562</v>
+      </c>
+      <c r="C335">
+        <v>2458</v>
+      </c>
+      <c r="D335">
+        <v>15020</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <v>44455</v>
+      </c>
+      <c r="B336">
+        <v>12569</v>
+      </c>
+      <c r="C336">
+        <v>2459</v>
+      </c>
+      <c r="D336">
+        <v>15028</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>44456</v>
+      </c>
+      <c r="B337">
+        <v>12569</v>
+      </c>
+      <c r="C337">
+        <v>2459</v>
+      </c>
+      <c r="D337">
+        <v>15028</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <v>44457</v>
+      </c>
+      <c r="B338">
+        <v>12573</v>
+      </c>
+      <c r="C338">
+        <v>2461</v>
+      </c>
+      <c r="D338">
+        <v>15034</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <v>44458</v>
+      </c>
+      <c r="B339">
+        <v>12580</v>
+      </c>
+      <c r="C339">
+        <v>2461</v>
+      </c>
+      <c r="D339">
+        <v>15041</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B340">
+        <v>12589</v>
+      </c>
+      <c r="C340">
+        <v>2461</v>
+      </c>
+      <c r="D340">
+        <v>15050</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>44460</v>
+      </c>
+      <c r="B341">
+        <v>12589</v>
+      </c>
+      <c r="C341">
+        <v>2461</v>
+      </c>
+      <c r="D341">
+        <v>15050</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <v>44461</v>
+      </c>
+      <c r="B342">
+        <v>12594</v>
+      </c>
+      <c r="C342">
+        <v>2461</v>
+      </c>
+      <c r="D342">
+        <v>15055</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <v>44462</v>
+      </c>
+      <c r="B343">
+        <v>12594</v>
+      </c>
+      <c r="C343">
+        <v>2461</v>
+      </c>
+      <c r="D343">
+        <v>15055</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <v>44463</v>
+      </c>
+      <c r="B344">
+        <v>12596</v>
+      </c>
+      <c r="C344">
+        <v>2462</v>
+      </c>
+      <c r="D344">
+        <v>15058</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <v>44464</v>
+      </c>
+      <c r="B345">
+        <v>12596</v>
+      </c>
+      <c r="C345">
+        <v>2462</v>
+      </c>
+      <c r="D345">
+        <v>15058</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <v>44465</v>
+      </c>
+      <c r="B346">
+        <v>12596</v>
+      </c>
+      <c r="C346">
+        <v>2462</v>
+      </c>
+      <c r="D346">
+        <v>15058</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B347">
+        <v>12606</v>
+      </c>
+      <c r="C347">
+        <v>2462</v>
+      </c>
+      <c r="D347">
+        <v>15068</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <v>44467</v>
+      </c>
+      <c r="B348">
+        <v>12620</v>
+      </c>
+      <c r="C348">
+        <v>2462</v>
+      </c>
+      <c r="D348">
+        <v>15082</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <v>44468</v>
+      </c>
+      <c r="B349">
+        <v>12637</v>
+      </c>
+      <c r="C349">
+        <v>2468</v>
+      </c>
+      <c r="D349">
+        <v>15105</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <v>44469</v>
+      </c>
+      <c r="B350">
+        <v>12649</v>
+      </c>
+      <c r="C350">
+        <v>2472</v>
+      </c>
+      <c r="D350">
+        <v>15121</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B351">
+        <v>12660</v>
+      </c>
+      <c r="C351">
+        <v>2476</v>
+      </c>
+      <c r="D351">
+        <v>15136</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <v>44471</v>
+      </c>
+      <c r="B352">
+        <v>12668</v>
+      </c>
+      <c r="C352">
+        <v>2476</v>
+      </c>
+      <c r="D352">
+        <v>15144</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <v>44472</v>
+      </c>
+      <c r="B353">
+        <v>12676</v>
+      </c>
+      <c r="C353">
+        <v>2476</v>
+      </c>
+      <c r="D353">
+        <v>15152</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B354">
+        <v>12690</v>
+      </c>
+      <c r="C354">
+        <v>2479</v>
+      </c>
+      <c r="D354">
+        <v>15169</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <v>44474</v>
+      </c>
+      <c r="B355">
+        <v>12697</v>
+      </c>
+      <c r="C355">
+        <v>2479</v>
+      </c>
+      <c r="D355">
+        <v>15176</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <v>44475</v>
+      </c>
+      <c r="B356">
+        <v>12705</v>
+      </c>
+      <c r="C356">
+        <v>2479</v>
+      </c>
+      <c r="D356">
+        <v>15184</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <v>44476</v>
+      </c>
+      <c r="B357">
+        <v>12720</v>
+      </c>
+      <c r="C357">
+        <v>2482</v>
+      </c>
+      <c r="D357">
+        <v>15202</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <v>44477</v>
+      </c>
+      <c r="B358">
+        <v>12729</v>
+      </c>
+      <c r="C358">
+        <v>2488</v>
+      </c>
+      <c r="D358">
+        <v>15217</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <v>44478</v>
+      </c>
+      <c r="B359">
+        <v>12731</v>
+      </c>
+      <c r="C359">
+        <v>2488</v>
+      </c>
+      <c r="D359">
+        <v>15219</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <v>44479</v>
+      </c>
+      <c r="B360">
+        <v>12735</v>
+      </c>
+      <c r="C360">
+        <v>2489</v>
+      </c>
+      <c r="D360">
+        <v>15224</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B361">
+        <v>12752</v>
+      </c>
+      <c r="C361">
+        <v>2499</v>
+      </c>
+      <c r="D361">
+        <v>15251</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <v>44481</v>
+      </c>
+      <c r="B362">
+        <v>12772</v>
+      </c>
+      <c r="C362">
+        <v>2501</v>
+      </c>
+      <c r="D362">
+        <v>15273</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <v>44482</v>
+      </c>
+      <c r="B363">
+        <v>12791</v>
+      </c>
+      <c r="C363">
+        <v>2508</v>
+      </c>
+      <c r="D363">
+        <v>15299</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <v>44483</v>
+      </c>
+      <c r="B364">
+        <v>12816</v>
+      </c>
+      <c r="C364">
+        <v>2508</v>
+      </c>
+      <c r="D364">
+        <v>15324</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <v>44484</v>
+      </c>
+      <c r="B365">
+        <v>12833</v>
+      </c>
+      <c r="C365">
+        <v>2508</v>
+      </c>
+      <c r="D365">
+        <v>15341</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <v>44485</v>
+      </c>
+      <c r="B366">
+        <v>12846</v>
+      </c>
+      <c r="C366">
+        <v>2508</v>
+      </c>
+      <c r="D366">
+        <v>15354</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <v>44486</v>
+      </c>
+      <c r="B367">
+        <v>12854</v>
+      </c>
+      <c r="C367">
+        <v>2508</v>
+      </c>
+      <c r="D367">
+        <v>15362</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <v>44487</v>
+      </c>
+      <c r="B368">
+        <v>12864</v>
+      </c>
+      <c r="C368">
+        <v>2509</v>
+      </c>
+      <c r="D368">
+        <v>15373</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
+        <v>44488</v>
+      </c>
+      <c r="B369">
+        <v>12872</v>
+      </c>
+      <c r="C369">
+        <v>2509</v>
+      </c>
+      <c r="D369">
+        <v>15381</v>
       </c>
     </row>
   </sheetData>
@@ -4224,15 +5566,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -4443,6 +5776,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4450,15 +5792,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{450F7B4F-AA9D-47A8-A29E-6CEC426ECF77}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF375DF8-6D87-424F-B67D-2921159495E2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Deaths/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
+++ b/Deaths/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/Deaths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_242B332E13B103BB156855F4CE0E46716C100010" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EF87387-6440-438C-9315-2565395A9F7D}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_242B332E13B103BB156855F4CE0E46716C100010" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE6ED73D-7368-4D87-88BA-520ABE748032}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,16 +400,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D369"/>
+  <dimension ref="A1:D383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,7 +423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44098</v>
       </c>
@@ -434,7 +434,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44099</v>
       </c>
@@ -445,7 +445,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44102</v>
       </c>
@@ -456,7 +456,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44103</v>
       </c>
@@ -467,7 +467,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44106</v>
       </c>
@@ -478,7 +478,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44107</v>
       </c>
@@ -492,7 +492,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44111</v>
       </c>
@@ -506,7 +506,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44116</v>
       </c>
@@ -520,7 +520,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44117</v>
       </c>
@@ -534,7 +534,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44118</v>
       </c>
@@ -548,7 +548,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44120</v>
       </c>
@@ -562,7 +562,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44121</v>
       </c>
@@ -576,7 +576,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44122</v>
       </c>
@@ -590,7 +590,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44124</v>
       </c>
@@ -604,7 +604,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44125</v>
       </c>
@@ -618,7 +618,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44126</v>
       </c>
@@ -632,7 +632,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44128</v>
       </c>
@@ -646,7 +646,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44129</v>
       </c>
@@ -660,7 +660,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44130</v>
       </c>
@@ -674,7 +674,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44131</v>
       </c>
@@ -688,7 +688,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44132</v>
       </c>
@@ -702,7 +702,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44133</v>
       </c>
@@ -716,7 +716,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44134</v>
       </c>
@@ -730,7 +730,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44137</v>
       </c>
@@ -744,7 +744,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44138</v>
       </c>
@@ -758,7 +758,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44139</v>
       </c>
@@ -772,7 +772,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44140</v>
       </c>
@@ -786,7 +786,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44141</v>
       </c>
@@ -800,7 +800,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44143</v>
       </c>
@@ -814,7 +814,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44144</v>
       </c>
@@ -828,7 +828,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44145</v>
       </c>
@@ -842,7 +842,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44146</v>
       </c>
@@ -856,7 +856,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44147</v>
       </c>
@@ -870,7 +870,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44148</v>
       </c>
@@ -884,7 +884,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44150</v>
       </c>
@@ -898,7 +898,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44151</v>
       </c>
@@ -912,7 +912,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44152</v>
       </c>
@@ -926,7 +926,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44153</v>
       </c>
@@ -940,7 +940,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44154</v>
       </c>
@@ -954,7 +954,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44155</v>
       </c>
@@ -968,7 +968,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44157</v>
       </c>
@@ -982,7 +982,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44158</v>
       </c>
@@ -996,7 +996,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44160</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44161</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44162</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44163</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44164</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44165</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44166</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44167</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44168</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>44169</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>44170</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>44171</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44172</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>44173</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>44174</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>44175</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>44176</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>44177</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>44178</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>44179</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>44180</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>44181</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>44182</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>44183</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>44184</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>44185</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>44186</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>44187</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>44188</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>44191</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>44192</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>44193</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>44194</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>44195</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>44196</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>44198</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>44199</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>44200</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>3225</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>44201</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>44202</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>3349</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>44203</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>44204</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>44205</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>3572</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>44206</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>44207</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>44208</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>44209</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>44210</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>4064</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>44211</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>4123</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>44212</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>4205</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>44213</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>4278</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>44214</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>4416</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>44215</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>4523</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>44216</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>4613</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>44217</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>4722</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>44218</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>4816</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>44219</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>4945</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>44220</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>5037</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>44221</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>5164</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>44222</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>5288</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>44223</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>5357</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>44224</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>5468</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>44225</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>5561</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>44226</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>5674</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>44227</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>5755</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>44228</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>5859</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>44229</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>5971</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>44230</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>6063</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>44231</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>6139</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>44232</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>6251</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>44233</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>6346</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>44234</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>6423</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>44235</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>6571</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>44236</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>6707</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>44237</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>6842</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>44238</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>6954</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>44239</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>7036</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>44240</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>7124</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>44241</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>7201</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>44242</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>7329</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>44243</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>7441</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>44244</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>7559</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>44245</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>7642</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>44246</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>7725</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>44247</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>7818</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>44248</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>7911</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>44249</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>8014</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>44250</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>8135</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>44251</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>8229</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>44252</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>8352</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>44253</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>8495</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>44254</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>8630</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>44255</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>8742</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>44256</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>8885</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>44257</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>9013</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>44258</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>9105</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>44259</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>9224</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>44260</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>9317</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>44261</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>9425</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>44262</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>9515</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>44263</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>9638</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>44264</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>9760</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>44265</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>9876</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>44266</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>9985</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>44267</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>10089</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>44268</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>10185</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>44269</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>10271</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>44270</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>10342</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>44271</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>10425</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>44272</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>10508</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>44273</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>10601</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>44274</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>10688</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>44275</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>10754</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>44276</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>10820</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>44277</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>10908</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>44278</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>10978</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>44279</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>11046</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>44280</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>11115</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>44281</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>11171</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>44282</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>11248</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>44283</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>11301</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>44284</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>11406</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>44285</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>11532</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>44286</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>11627</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>44287</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>11733</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>44288</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>11809</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>44289</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>11893</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>44290</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>11971</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>44291</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>12044</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>44292</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>12137</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>44293</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>12240</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>44294</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>12360</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>44295</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>12463</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>44296</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>12542</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>44297</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>12567</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>44298</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>12759</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>44299</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>12858</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>44300</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>12967</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>44301</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>13081</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>44302</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>13164</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>44303</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>13241</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>44304</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>13318</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>44305</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>13394</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>44306</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>13465</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>44307</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>13532</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>44308</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>13590</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>44309</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>13655</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>44310</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>13705</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>44311</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>13758</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>44312</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>13808</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>44313</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>13858</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>44314</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>13902</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>44315</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>13950</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>44316</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>14005</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>44317</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>14051</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>44318</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>14099</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>44319</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>14157</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>44320</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>14202</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>44321</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>14244</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>44322</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>14255</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>44323</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>14329</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>44324</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>14365</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>44325</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>14402</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>44326</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>14436</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>44327</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>14466</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>44328</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>14515</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>44329</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>14555</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>44330</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>14595</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>44331</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>14619</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>44332</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>14640</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>44333</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>14651</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>44334</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>14667</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>44335</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>14677</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>44336</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>14686</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>44337</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>14692</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>44338</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>14698</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>44339</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>14697</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>44340</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>14708</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>44341</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>14722</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>44342</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>14733</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>44343</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>14748</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>44344</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>14751</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>44345</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>14755</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>44346</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>14760</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>44347</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>14770</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>44348</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>14783</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>44349</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>14793</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>44350</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>14802</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>44351</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>14818</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>44352</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>14827</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>44353</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>14840</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>44354</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>14849</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>44355</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>14856</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>44356</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>14859</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>44357</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>14859</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>44358</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>14863</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>44359</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>14866</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>44360</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>14869</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>44361</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>14876</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>44362</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>14889</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>44363</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>14901</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>44364</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>14920</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>44365</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>14932</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>44366</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>14942</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>44367</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>14946</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>44368</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>14952</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>44369</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>14952</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>44370</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>14952</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>44371</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>14956</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>44372</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>14956</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>44373</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>14956</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>44374</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>14960</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>44375</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>14961</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>44376</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>14961</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>44377</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>14962</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>44378</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>14962</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>44379</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>14964</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>44380</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>14964</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>44381</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>14964</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>44382</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>14965</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>44383</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>14967</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>44384</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>14967</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>44385</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>14968</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>44386</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>14971</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>44387</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>14971</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>44388</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>14973</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>44389</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>14975</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>44390</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>14976</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>44391</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>14978</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>44392</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>14978</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>44393</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>14978</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>44394</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>14978</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>44395</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>14983</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>44396</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>14988</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>44397</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>14991</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>44398</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>14991</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>44399</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>14991</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>44400</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>14991</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>44401</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>14991</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>44402</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>14991</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>44403</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>14991</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>44404</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>14991</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>44405</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>14993</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>44406</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>14993</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>44407</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>14997</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>44408</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>14997</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>44409</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>14997</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>44410</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>14998</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>44411</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>14998</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>44412</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>14998</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>44413</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>14998</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>44414</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>14998</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>44415</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>14998</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>44416</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>14998</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>44417</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>44418</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>15001</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>44419</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>15001</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>44420</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>15001</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>44421</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>15001</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>44422</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>15001</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>44423</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>15001</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>44424</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>15003</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>44425</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>15004</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>44426</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>15004</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>44427</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>15004</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>44428</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>15004</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>44429</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>15004</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>44430</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>15004</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>44431</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>15004</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>44432</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>15004</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>44433</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>15004</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>44434</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>15005</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>44435</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>15005</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>44436</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>15005</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>44437</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>15005</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>44438</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>15005</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>44439</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>15005</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>44440</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>15005</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>44441</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>15006</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>44442</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>15006</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>44443</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>15006</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>44444</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>15009</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>44445</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>15010</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>44446</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>15011</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>44447</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>15014</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>44448</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>15016</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>44449</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>15016</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>44450</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>15016</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>44451</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>15018</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>44452</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>15020</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>44453</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>15020</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>44454</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>15020</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>44455</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>15028</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>44456</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>15028</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>44457</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>15034</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>44458</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>15041</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>44459</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>15050</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>44460</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>15050</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>44461</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>15055</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>44462</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>15055</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>44463</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>15058</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>44464</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>15058</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>44465</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>15058</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>44466</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>15068</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>44467</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>15082</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>44468</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>15105</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>44469</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>15121</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>44470</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>15136</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>44471</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>15144</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>44472</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>15152</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>44473</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>15169</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>44474</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>15176</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>44475</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>15184</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>44476</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>15202</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>44477</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>15217</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>44478</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>15219</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>44479</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>15224</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>44480</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>15251</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>44481</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>15273</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>44482</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>15299</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>44483</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>15324</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>44484</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>15341</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>44485</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>15354</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>44486</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>15362</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>44487</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>15373</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>44488</v>
       </c>
@@ -5558,6 +5558,202 @@
       </c>
       <c r="D369">
         <v>15381</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370" s="1">
+        <v>44489</v>
+      </c>
+      <c r="B370">
+        <v>12883</v>
+      </c>
+      <c r="C370">
+        <v>2510</v>
+      </c>
+      <c r="D370">
+        <v>15393</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371" s="1">
+        <v>44490</v>
+      </c>
+      <c r="B371">
+        <v>12886</v>
+      </c>
+      <c r="C371">
+        <v>2511</v>
+      </c>
+      <c r="D371">
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372" s="1">
+        <v>44491</v>
+      </c>
+      <c r="B372">
+        <v>12895</v>
+      </c>
+      <c r="C372">
+        <v>2511</v>
+      </c>
+      <c r="D372">
+        <v>15406</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373" s="1">
+        <v>44492</v>
+      </c>
+      <c r="B373">
+        <v>12903</v>
+      </c>
+      <c r="C373">
+        <v>2515</v>
+      </c>
+      <c r="D373">
+        <v>15418</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374" s="1">
+        <v>44493</v>
+      </c>
+      <c r="B374">
+        <v>12917</v>
+      </c>
+      <c r="C374">
+        <v>2515</v>
+      </c>
+      <c r="D374">
+        <v>15432</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A375" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B375">
+        <v>12935</v>
+      </c>
+      <c r="C375">
+        <v>2516</v>
+      </c>
+      <c r="D375">
+        <v>15451</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A376" s="1">
+        <v>44495</v>
+      </c>
+      <c r="B376">
+        <v>12957</v>
+      </c>
+      <c r="C376">
+        <v>2518</v>
+      </c>
+      <c r="D376">
+        <v>15475</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A377" s="1">
+        <v>44496</v>
+      </c>
+      <c r="B377">
+        <v>12977</v>
+      </c>
+      <c r="C377">
+        <v>2521</v>
+      </c>
+      <c r="D377">
+        <v>15498</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A378" s="1">
+        <v>44497</v>
+      </c>
+      <c r="B378">
+        <v>13000</v>
+      </c>
+      <c r="C378">
+        <v>2521</v>
+      </c>
+      <c r="D378">
+        <v>15521</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A379" s="1">
+        <v>44498</v>
+      </c>
+      <c r="B379">
+        <v>13018</v>
+      </c>
+      <c r="C379">
+        <v>2525</v>
+      </c>
+      <c r="D379">
+        <v>15543</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A380" s="1">
+        <v>44499</v>
+      </c>
+      <c r="B380">
+        <v>13034</v>
+      </c>
+      <c r="C380">
+        <v>2529</v>
+      </c>
+      <c r="D380">
+        <v>15563</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A381" s="1">
+        <v>44500</v>
+      </c>
+      <c r="B381">
+        <v>13045</v>
+      </c>
+      <c r="C381">
+        <v>2529</v>
+      </c>
+      <c r="D381">
+        <v>15574</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A382" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B382">
+        <v>13076</v>
+      </c>
+      <c r="C382">
+        <v>2529</v>
+      </c>
+      <c r="D382">
+        <v>15605</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A383" s="1">
+        <v>44502</v>
+      </c>
+      <c r="B383">
+        <v>13112</v>
+      </c>
+      <c r="C383">
+        <v>2533</v>
+      </c>
+      <c r="D383">
+        <v>15645</v>
       </c>
     </row>
   </sheetData>
@@ -5566,6 +5762,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -5776,34 +5987,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{450F7B4F-AA9D-47A8-A29E-6CEC426ECF77}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E17842-9B7C-4649-B236-529FBDA6159D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -5818,4 +6002,31 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{450F7B4F-AA9D-47A8-A29E-6CEC426ECF77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
+    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Deaths/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
+++ b/Deaths/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/Deaths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_242B332E13B103BB156855F4CE0E46716C100010" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE6ED73D-7368-4D87-88BA-520ABE748032}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_242B332E13B103BB156855F4CE0E46716C100010" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73927340-DACD-42E2-BB94-17DE9A58EEC5}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D383"/>
+  <dimension ref="A1:D398"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5756,27 +5756,222 @@
         <v>15645</v>
       </c>
     </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A384" s="1">
+        <v>44503</v>
+      </c>
+      <c r="B384">
+        <v>13146</v>
+      </c>
+      <c r="C384">
+        <v>2539</v>
+      </c>
+      <c r="D384">
+        <v>15685</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A385" s="1">
+        <v>44504</v>
+      </c>
+      <c r="B385">
+        <v>13166</v>
+      </c>
+      <c r="C385">
+        <v>2545</v>
+      </c>
+      <c r="D385">
+        <v>15711</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A386" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B386">
+        <v>13205</v>
+      </c>
+      <c r="C386">
+        <v>2551</v>
+      </c>
+      <c r="D386">
+        <v>15756</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A387" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B387">
+        <v>13229</v>
+      </c>
+      <c r="C387">
+        <v>2551</v>
+      </c>
+      <c r="D387">
+        <v>15780</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A388" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B388">
+        <v>13269</v>
+      </c>
+      <c r="C388">
+        <v>2551</v>
+      </c>
+      <c r="D388">
+        <v>15820</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A389" s="1">
+        <v>44508</v>
+      </c>
+      <c r="B389">
+        <v>13314</v>
+      </c>
+      <c r="C389">
+        <v>2556</v>
+      </c>
+      <c r="D389">
+        <v>15870</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A390" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B390">
+        <v>13367</v>
+      </c>
+      <c r="C390">
+        <v>2571</v>
+      </c>
+      <c r="D390">
+        <v>15938</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A391" s="1">
+        <v>44510</v>
+      </c>
+      <c r="B391">
+        <v>13405</v>
+      </c>
+      <c r="C391">
+        <v>2580</v>
+      </c>
+      <c r="D391">
+        <v>15985</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A392" s="1">
+        <v>44511</v>
+      </c>
+      <c r="B392">
+        <v>13446</v>
+      </c>
+      <c r="C392">
+        <v>2584</v>
+      </c>
+      <c r="D392">
+        <v>16030</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A393" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B393">
+        <v>13485</v>
+      </c>
+      <c r="C393">
+        <v>2589</v>
+      </c>
+      <c r="D393">
+        <v>16074</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A394" s="1">
+        <v>44513</v>
+      </c>
+      <c r="B394">
+        <v>13537</v>
+      </c>
+      <c r="C394">
+        <v>2594</v>
+      </c>
+      <c r="D394">
+        <v>16131</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A395" s="1">
+        <v>44514</v>
+      </c>
+      <c r="B395">
+        <v>13598</v>
+      </c>
+      <c r="C395">
+        <v>2596</v>
+      </c>
+      <c r="D395">
+        <v>16194</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A396" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B396">
+        <v>13644</v>
+      </c>
+      <c r="C396">
+        <v>2602</v>
+      </c>
+      <c r="D396">
+        <v>16246</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A397" s="1">
+        <v>44516</v>
+      </c>
+      <c r="B397">
+        <v>13687</v>
+      </c>
+      <c r="C397">
+        <v>2615</v>
+      </c>
+      <c r="D397">
+        <v>16302</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A398" s="1">
+        <v>44517</v>
+      </c>
+      <c r="B398">
+        <v>13725</v>
+      </c>
+      <c r="C398">
+        <v>2616</v>
+      </c>
+      <c r="D398">
+        <v>16341</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -5987,32 +6182,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E17842-9B7C-4649-B236-529FBDA6159D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{450F7B4F-AA9D-47A8-A29E-6CEC426ECF77}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6029,4 +6214,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E17842-9B7C-4649-B236-529FBDA6159D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Deaths/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
+++ b/Deaths/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/Deaths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_242B332E13B103BB156855F4CE0E46716C100010" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73927340-DACD-42E2-BB94-17DE9A58EEC5}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_242B332E13B103BB156855F4CE0E46716C100010" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C79C904-3F95-4EB1-8E82-84538CC12081}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,9 +400,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D398"/>
+  <dimension ref="A1:D410"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="A410" sqref="A410"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5966,12 +5968,195 @@
         <v>16341</v>
       </c>
     </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A399" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B399">
+        <v>13781</v>
+      </c>
+      <c r="C399">
+        <v>2629</v>
+      </c>
+      <c r="D399">
+        <v>16410</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A400" s="1">
+        <v>44519</v>
+      </c>
+      <c r="B400">
+        <v>13818</v>
+      </c>
+      <c r="C400">
+        <v>2638</v>
+      </c>
+      <c r="D400">
+        <v>16456</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A401" s="1">
+        <v>44520</v>
+      </c>
+      <c r="B401">
+        <v>13861</v>
+      </c>
+      <c r="C401">
+        <v>2638</v>
+      </c>
+      <c r="D401">
+        <v>16499</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A402" s="1">
+        <v>44521</v>
+      </c>
+      <c r="B402">
+        <v>13919</v>
+      </c>
+      <c r="C402">
+        <v>2638</v>
+      </c>
+      <c r="D402">
+        <v>16557</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A403" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B403">
+        <v>13985</v>
+      </c>
+      <c r="C403">
+        <v>2649</v>
+      </c>
+      <c r="D403">
+        <v>16634</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A404" s="1">
+        <v>44523</v>
+      </c>
+      <c r="B404">
+        <v>14056</v>
+      </c>
+      <c r="C404">
+        <v>2653</v>
+      </c>
+      <c r="D404">
+        <v>16709</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A405" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B405">
+        <v>14107</v>
+      </c>
+      <c r="C405">
+        <v>2655</v>
+      </c>
+      <c r="D405">
+        <v>16762</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A406" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B406">
+        <v>14177</v>
+      </c>
+      <c r="C406">
+        <v>2662</v>
+      </c>
+      <c r="D406">
+        <v>16839</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A407" s="1">
+        <v>44526</v>
+      </c>
+      <c r="B407">
+        <v>14228</v>
+      </c>
+      <c r="C407">
+        <v>2670</v>
+      </c>
+      <c r="D407">
+        <v>16898</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A408" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B408">
+        <v>14274</v>
+      </c>
+      <c r="C408">
+        <v>2678</v>
+      </c>
+      <c r="D408">
+        <v>16952</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A409" s="1">
+        <v>44528</v>
+      </c>
+      <c r="B409">
+        <v>14341</v>
+      </c>
+      <c r="C409">
+        <v>2687</v>
+      </c>
+      <c r="D409">
+        <v>17028</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A410" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B410">
+        <v>14418</v>
+      </c>
+      <c r="C410">
+        <v>2696</v>
+      </c>
+      <c r="D410">
+        <v>17114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -6182,22 +6367,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E17842-9B7C-4649-B236-529FBDA6159D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{450F7B4F-AA9D-47A8-A29E-6CEC426ECF77}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6214,29 +6409,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E17842-9B7C-4649-B236-529FBDA6159D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Deaths/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
+++ b/Deaths/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/Deaths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_242B332E13B103BB156855F4CE0E46716C100010" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C79C904-3F95-4EB1-8E82-84538CC12081}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_242B332E13B103BB156855F4CE0E46716C100010" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98ACDE9D-AC71-4E3E-956C-A06C5B4D3FA2}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,18 +400,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D410"/>
+  <dimension ref="A1:D468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410"/>
+    <sheetView tabSelected="1" topLeftCell="A449" workbookViewId="0">
+      <selection activeCell="A468" sqref="A468"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44098</v>
       </c>
@@ -436,7 +436,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44099</v>
       </c>
@@ -447,7 +447,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44102</v>
       </c>
@@ -458,7 +458,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44103</v>
       </c>
@@ -469,7 +469,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44106</v>
       </c>
@@ -480,7 +480,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44107</v>
       </c>
@@ -494,7 +494,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44111</v>
       </c>
@@ -508,7 +508,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44116</v>
       </c>
@@ -522,7 +522,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44117</v>
       </c>
@@ -536,7 +536,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44118</v>
       </c>
@@ -550,7 +550,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44120</v>
       </c>
@@ -564,7 +564,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44121</v>
       </c>
@@ -578,7 +578,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44122</v>
       </c>
@@ -592,7 +592,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44124</v>
       </c>
@@ -606,7 +606,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44125</v>
       </c>
@@ -620,7 +620,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44126</v>
       </c>
@@ -634,7 +634,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44128</v>
       </c>
@@ -648,7 +648,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44129</v>
       </c>
@@ -662,7 +662,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44130</v>
       </c>
@@ -676,7 +676,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44131</v>
       </c>
@@ -690,7 +690,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44132</v>
       </c>
@@ -704,7 +704,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44133</v>
       </c>
@@ -718,7 +718,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44134</v>
       </c>
@@ -732,7 +732,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44137</v>
       </c>
@@ -746,7 +746,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44138</v>
       </c>
@@ -760,7 +760,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44139</v>
       </c>
@@ -774,7 +774,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44140</v>
       </c>
@@ -788,7 +788,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44141</v>
       </c>
@@ -802,7 +802,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44143</v>
       </c>
@@ -816,7 +816,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44144</v>
       </c>
@@ -830,7 +830,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44145</v>
       </c>
@@ -844,7 +844,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44146</v>
       </c>
@@ -858,7 +858,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44147</v>
       </c>
@@ -872,7 +872,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44148</v>
       </c>
@@ -886,7 +886,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44150</v>
       </c>
@@ -900,7 +900,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44151</v>
       </c>
@@ -914,7 +914,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44152</v>
       </c>
@@ -928,7 +928,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44153</v>
       </c>
@@ -942,7 +942,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44154</v>
       </c>
@@ -956,7 +956,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44155</v>
       </c>
@@ -970,7 +970,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44157</v>
       </c>
@@ -984,7 +984,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44158</v>
       </c>
@@ -998,7 +998,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44160</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44161</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44162</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44163</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44164</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44165</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44166</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44167</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44168</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44169</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44170</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44171</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44172</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44173</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44174</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44175</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44176</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44177</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44178</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44179</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44180</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44181</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44182</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44183</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44184</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44185</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44186</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44187</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44188</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44191</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44192</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44193</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>44194</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>44195</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>44196</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>44198</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>44199</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>44200</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>3225</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>44201</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>44202</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>3349</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>44203</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>44204</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>44205</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>3572</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>44206</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>44207</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>44208</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>44209</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>44210</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>4064</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>44211</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>4123</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>44212</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>4205</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>44213</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>4278</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>44214</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>4416</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44215</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>4523</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44216</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>4613</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44217</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>4722</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44218</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>4816</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44219</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>4945</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44220</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>5037</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44221</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>5164</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44222</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>5288</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44223</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>5357</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44224</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>5468</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44225</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>5561</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44226</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>5674</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44227</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>5755</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44228</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>5859</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44229</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>5971</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44230</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>6063</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44231</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>6139</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44232</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>6251</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44233</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>6346</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44234</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>6423</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44235</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>6571</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44236</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>6707</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44237</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>6842</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44238</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>6954</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44239</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>7036</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44240</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>7124</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44241</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>7201</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44242</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>7329</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44243</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>7441</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44244</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>7559</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44245</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>7642</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44246</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>7725</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44247</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>7818</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44248</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>7911</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44249</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>8014</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44250</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>8135</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44251</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>8229</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44252</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>8352</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44253</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>8495</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44254</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>8630</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44255</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>8742</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44256</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>8885</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44257</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>9013</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44258</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>9105</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44259</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>9224</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44260</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>9317</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44261</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>9425</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44262</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>9515</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44263</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>9638</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44264</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>9760</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44265</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>9876</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44266</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>9985</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44267</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>10089</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44268</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>10185</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44269</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>10271</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44270</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>10342</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44271</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>10425</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44272</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>10508</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44273</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>10601</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44274</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>10688</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44275</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>10754</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44276</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>10820</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44277</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>10908</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44278</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>10978</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44279</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>11046</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44280</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>11115</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44281</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>11171</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44282</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>11248</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44283</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>11301</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44284</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>11406</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44285</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>11532</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44286</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>11627</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44287</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>11733</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44288</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>11809</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44289</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>11893</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44290</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>11971</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44291</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>12044</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44292</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>12137</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44293</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>12240</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44294</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>12360</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44295</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>12463</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44296</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>12542</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44297</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>12567</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44298</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>12759</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44299</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>12858</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44300</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>12967</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44301</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>13081</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44302</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>13164</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44303</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>13241</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44304</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>13318</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44305</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>13394</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44306</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>13465</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44307</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>13532</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44308</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>13590</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44309</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>13655</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44310</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>13705</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44311</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>13758</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>44312</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>13808</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>44313</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>13858</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>44314</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>13902</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>44315</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>13950</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>44316</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>14005</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>44317</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>14051</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>44318</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>14099</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44319</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>14157</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44320</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>14202</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44321</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>14244</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44322</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>14255</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44323</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>14329</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44324</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>14365</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44325</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>14402</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44326</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>14436</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44327</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>14466</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44328</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>14515</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44329</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>14555</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44330</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>14595</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44331</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>14619</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44332</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>14640</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44333</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>14651</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44334</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>14667</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44335</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>14677</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44336</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>14686</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44337</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>14692</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44338</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>14698</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44339</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>14697</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44340</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>14708</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44341</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>14722</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44342</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>14733</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44343</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>14748</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44344</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>14751</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44345</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>14755</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>44346</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>14760</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>44347</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>14770</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44348</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>14783</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>44349</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>14793</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>44350</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>14802</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44351</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>14818</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>44352</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>14827</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>44353</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>14840</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>44354</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>14849</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>44355</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>14856</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44356</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>14859</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44357</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>14859</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44358</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>14863</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44359</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>14866</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44360</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>14869</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44361</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>14876</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44362</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>14889</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44363</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>14901</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>44364</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>14920</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>44365</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>14932</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>44366</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>14942</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>44367</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>14946</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>44368</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>14952</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>44369</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>14952</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>44370</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>14952</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>44371</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>14956</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>44372</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>14956</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>44373</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>14956</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>44374</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>14960</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>44375</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>14961</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>44376</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>14961</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>44377</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>14962</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>44378</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>14962</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44379</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>14964</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>44380</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>14964</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>44381</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>14964</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>44382</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>14965</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>44383</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>14967</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>44384</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>14967</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44385</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>14968</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>44386</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>14971</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>44387</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>14971</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>44388</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>14973</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>44389</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>14975</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>44390</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>14976</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>44391</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>14978</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>44392</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>14978</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>44393</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>14978</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>44394</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>14978</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>44395</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>14983</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>44396</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>14988</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>44397</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>14991</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>44398</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>14991</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>44399</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>14991</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>44400</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>14991</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>44401</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>14991</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>44402</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>14991</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>44403</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>14991</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>44404</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>14991</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>44405</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>14993</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>44406</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>14993</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>44407</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>14997</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>44408</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>14997</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>44409</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>14997</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>44410</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>14998</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>44411</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>14998</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>44412</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>14998</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>44413</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>14998</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>44414</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>14998</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>44415</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>14998</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>44416</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>14998</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>44417</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>44418</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>15001</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>44419</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>15001</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>44420</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>15001</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>44421</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>15001</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>44422</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>15001</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>44423</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>15001</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>44424</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>15003</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>44425</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>15004</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>44426</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>15004</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>44427</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>15004</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>44428</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>15004</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>44429</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>15004</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>44430</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>15004</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>44431</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>15004</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>44432</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>15004</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>44433</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>15004</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>44434</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>15005</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>44435</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>15005</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>44436</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>15005</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>44437</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>15005</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>44438</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>15005</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>44439</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>15005</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>44440</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>15005</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>44441</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>15006</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>44442</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>15006</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>44443</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>15006</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>44444</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>15009</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>44445</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>15010</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>44446</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>15011</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>44447</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>15014</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>44448</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>15016</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>44449</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>15016</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>44450</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>15016</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>44451</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>15018</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>44452</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>15020</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>44453</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>15020</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>44454</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>15020</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>44455</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>15028</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>44456</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>15028</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>44457</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>15034</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>44458</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>15041</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>44459</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>15050</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>44460</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>15050</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>44461</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>15055</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>44462</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>15055</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>44463</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>15058</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>44464</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>15058</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>44465</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>15058</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>44466</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>15068</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>44467</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>15082</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>44468</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>15105</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>44469</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>15121</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>44470</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>15136</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>44471</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>15144</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>44472</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>15152</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>44473</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>15169</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>44474</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>15176</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>44475</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>15184</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>44476</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>15202</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>44477</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>15217</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>44478</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>15219</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>44479</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>15224</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>44480</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>15251</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>44481</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>15273</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>44482</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>15299</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>44483</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>15324</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>44484</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>15341</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>44485</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>15354</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>44486</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>15362</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>44487</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>15373</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>44488</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>15381</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>44489</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>15393</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>44490</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>15397</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>44491</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>15406</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>44492</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>15418</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>44493</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>15432</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>44494</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>15451</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>44495</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>15475</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>44496</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>15498</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>44497</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>15521</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>44498</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>15543</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>44499</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>15563</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>44500</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>15574</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>44501</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>15605</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>44502</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>15645</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>44503</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>15685</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>44504</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>15711</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>44505</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>15756</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>44506</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>15780</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>44507</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>15820</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>44508</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>15870</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>44509</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>15938</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>44510</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>15985</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>44511</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>16030</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>44512</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>16074</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>44513</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>16131</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>44514</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>16194</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>44515</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>16246</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>44516</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>16302</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>44517</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>16341</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>44518</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>16410</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>44519</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>16456</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>44520</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>16499</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>44521</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>16557</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>44522</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>16634</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>44523</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>16709</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>44524</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>16762</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>44525</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>16839</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>44526</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>16898</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>44527</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>16952</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>44528</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>17028</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>44529</v>
       </c>
@@ -6134,6 +6134,818 @@
       </c>
       <c r="D410">
         <v>17114</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B411">
+        <v>14503</v>
+      </c>
+      <c r="C411">
+        <v>2718</v>
+      </c>
+      <c r="D411">
+        <v>17221</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B412">
+        <v>14606</v>
+      </c>
+      <c r="C412">
+        <v>2726</v>
+      </c>
+      <c r="D412">
+        <v>17332</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A413" s="1">
+        <v>44532</v>
+      </c>
+      <c r="B413">
+        <v>14696</v>
+      </c>
+      <c r="C413">
+        <v>2733</v>
+      </c>
+      <c r="D413">
+        <v>17429</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B414">
+        <v>14771</v>
+      </c>
+      <c r="C414">
+        <v>2734</v>
+      </c>
+      <c r="D414">
+        <v>17505</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
+        <v>44534</v>
+      </c>
+      <c r="B415">
+        <v>14826</v>
+      </c>
+      <c r="C415">
+        <v>2736</v>
+      </c>
+      <c r="D415">
+        <v>17562</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416" s="1">
+        <v>44535</v>
+      </c>
+      <c r="B416">
+        <v>14900</v>
+      </c>
+      <c r="C416">
+        <v>2736</v>
+      </c>
+      <c r="D416">
+        <v>17636</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <v>44536</v>
+      </c>
+      <c r="B417">
+        <v>15004</v>
+      </c>
+      <c r="C417">
+        <v>2751</v>
+      </c>
+      <c r="D417">
+        <v>17755</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <v>44537</v>
+      </c>
+      <c r="B418">
+        <v>15095</v>
+      </c>
+      <c r="C418">
+        <v>2762</v>
+      </c>
+      <c r="D418">
+        <v>17857</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <v>44538</v>
+      </c>
+      <c r="B419">
+        <v>15179</v>
+      </c>
+      <c r="C419">
+        <v>2778</v>
+      </c>
+      <c r="D419">
+        <v>17957</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <v>44539</v>
+      </c>
+      <c r="B420">
+        <v>15236</v>
+      </c>
+      <c r="C420">
+        <v>2790</v>
+      </c>
+      <c r="D420">
+        <v>18026</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B421">
+        <v>15304</v>
+      </c>
+      <c r="C421">
+        <v>2801</v>
+      </c>
+      <c r="D421">
+        <v>18105</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422" s="1">
+        <v>44541</v>
+      </c>
+      <c r="B422">
+        <v>15354</v>
+      </c>
+      <c r="C422">
+        <v>2801</v>
+      </c>
+      <c r="D422">
+        <v>18155</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
+        <v>44542</v>
+      </c>
+      <c r="B423">
+        <v>15415</v>
+      </c>
+      <c r="C423">
+        <v>2801</v>
+      </c>
+      <c r="D423">
+        <v>18216</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B424">
+        <v>15516</v>
+      </c>
+      <c r="C424">
+        <v>2817</v>
+      </c>
+      <c r="D424">
+        <v>18333</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
+        <v>44544</v>
+      </c>
+      <c r="B425">
+        <v>15621</v>
+      </c>
+      <c r="C425">
+        <v>2830</v>
+      </c>
+      <c r="D425">
+        <v>18451</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426" s="1">
+        <v>44545</v>
+      </c>
+      <c r="B426">
+        <v>15730</v>
+      </c>
+      <c r="C426">
+        <v>2847</v>
+      </c>
+      <c r="D426">
+        <v>18577</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B427">
+        <v>15843</v>
+      </c>
+      <c r="C427">
+        <v>2854</v>
+      </c>
+      <c r="D427">
+        <v>18697</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <v>44547</v>
+      </c>
+      <c r="B428">
+        <v>15931</v>
+      </c>
+      <c r="C428">
+        <v>2862</v>
+      </c>
+      <c r="D428">
+        <v>18793</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <v>44548</v>
+      </c>
+      <c r="B429">
+        <v>16014</v>
+      </c>
+      <c r="C429">
+        <v>2862</v>
+      </c>
+      <c r="D429">
+        <v>18876</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <v>44549</v>
+      </c>
+      <c r="B430">
+        <v>16068</v>
+      </c>
+      <c r="C430">
+        <v>2865</v>
+      </c>
+      <c r="D430">
+        <v>18933</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
+        <v>44550</v>
+      </c>
+      <c r="B431">
+        <v>16129</v>
+      </c>
+      <c r="C431">
+        <v>2871</v>
+      </c>
+      <c r="D431">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
+        <v>44551</v>
+      </c>
+      <c r="B432">
+        <v>16198</v>
+      </c>
+      <c r="C432">
+        <v>2883</v>
+      </c>
+      <c r="D432">
+        <v>19081</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
+        <v>44552</v>
+      </c>
+      <c r="B433">
+        <v>16239</v>
+      </c>
+      <c r="C433">
+        <v>2888</v>
+      </c>
+      <c r="D433">
+        <v>19127</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
+        <v>44553</v>
+      </c>
+      <c r="B434">
+        <v>16290</v>
+      </c>
+      <c r="C434">
+        <v>2894</v>
+      </c>
+      <c r="D434">
+        <v>19184</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435" s="1">
+        <v>44554</v>
+      </c>
+      <c r="B435">
+        <v>16336</v>
+      </c>
+      <c r="C435">
+        <v>2900</v>
+      </c>
+      <c r="D435">
+        <v>19236</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
+        <v>44555</v>
+      </c>
+      <c r="B436">
+        <v>16398</v>
+      </c>
+      <c r="C436">
+        <v>2902</v>
+      </c>
+      <c r="D436">
+        <v>19300</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
+        <v>44556</v>
+      </c>
+      <c r="B437">
+        <v>16445</v>
+      </c>
+      <c r="C437">
+        <v>2904</v>
+      </c>
+      <c r="D437">
+        <v>19349</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
+        <v>44557</v>
+      </c>
+      <c r="B438">
+        <v>16486</v>
+      </c>
+      <c r="C438">
+        <v>2919</v>
+      </c>
+      <c r="D438">
+        <v>19405</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
+        <v>44558</v>
+      </c>
+      <c r="B439">
+        <v>16554</v>
+      </c>
+      <c r="C439">
+        <v>2928</v>
+      </c>
+      <c r="D439">
+        <v>19482</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440" s="1">
+        <v>44559</v>
+      </c>
+      <c r="B440">
+        <v>16598</v>
+      </c>
+      <c r="C440">
+        <v>2930</v>
+      </c>
+      <c r="D440">
+        <v>19528</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441" s="1">
+        <v>44560</v>
+      </c>
+      <c r="B441">
+        <v>16635</v>
+      </c>
+      <c r="C441">
+        <v>2932</v>
+      </c>
+      <c r="D441">
+        <v>19567</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442" s="1">
+        <v>44561</v>
+      </c>
+      <c r="B442">
+        <v>16665</v>
+      </c>
+      <c r="C442">
+        <v>2933</v>
+      </c>
+      <c r="D442">
+        <v>19598</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B443">
+        <v>16701</v>
+      </c>
+      <c r="C443">
+        <v>2936</v>
+      </c>
+      <c r="D443">
+        <v>19637</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444" s="1">
+        <v>44563</v>
+      </c>
+      <c r="B444">
+        <v>16740</v>
+      </c>
+      <c r="C444">
+        <v>2938</v>
+      </c>
+      <c r="D444">
+        <v>19678</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445" s="1">
+        <v>44564</v>
+      </c>
+      <c r="B445">
+        <v>16788</v>
+      </c>
+      <c r="C445">
+        <v>2956</v>
+      </c>
+      <c r="D445">
+        <v>19744</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446" s="1">
+        <v>44565</v>
+      </c>
+      <c r="B446">
+        <v>16824</v>
+      </c>
+      <c r="C446">
+        <v>2957</v>
+      </c>
+      <c r="D446">
+        <v>19781</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447" s="1">
+        <v>44566</v>
+      </c>
+      <c r="B447">
+        <v>16871</v>
+      </c>
+      <c r="C447">
+        <v>2958</v>
+      </c>
+      <c r="D447">
+        <v>19829</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448" s="1">
+        <v>44567</v>
+      </c>
+      <c r="B448">
+        <v>16896</v>
+      </c>
+      <c r="C448">
+        <v>2958</v>
+      </c>
+      <c r="D448">
+        <v>19854</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449" s="1">
+        <v>44568</v>
+      </c>
+      <c r="B449">
+        <v>16933</v>
+      </c>
+      <c r="C449">
+        <v>2962</v>
+      </c>
+      <c r="D449">
+        <v>19895</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450" s="1">
+        <v>44569</v>
+      </c>
+      <c r="B450">
+        <v>16962</v>
+      </c>
+      <c r="C450">
+        <v>2962</v>
+      </c>
+      <c r="D450">
+        <v>19924</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451" s="1">
+        <v>44570</v>
+      </c>
+      <c r="B451">
+        <v>16989</v>
+      </c>
+      <c r="C451">
+        <v>2962</v>
+      </c>
+      <c r="D451">
+        <v>19951</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
+        <v>44571</v>
+      </c>
+      <c r="B452">
+        <v>17039</v>
+      </c>
+      <c r="C452">
+        <v>2976</v>
+      </c>
+      <c r="D452">
+        <v>20015</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453" s="1">
+        <v>44572</v>
+      </c>
+      <c r="B453">
+        <v>17081</v>
+      </c>
+      <c r="C453">
+        <v>2997</v>
+      </c>
+      <c r="D453">
+        <v>20078</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454" s="1">
+        <v>44573</v>
+      </c>
+      <c r="B454">
+        <v>17128</v>
+      </c>
+      <c r="C454">
+        <v>3020</v>
+      </c>
+      <c r="D454">
+        <v>20148</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455" s="1">
+        <v>44574</v>
+      </c>
+      <c r="B455">
+        <v>17188</v>
+      </c>
+      <c r="C455">
+        <v>3037</v>
+      </c>
+      <c r="D455">
+        <v>20225</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456" s="1">
+        <v>44575</v>
+      </c>
+      <c r="B456">
+        <v>17252</v>
+      </c>
+      <c r="C456">
+        <v>3047</v>
+      </c>
+      <c r="D456">
+        <v>20299</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B457">
+        <v>17300</v>
+      </c>
+      <c r="C457">
+        <v>3064</v>
+      </c>
+      <c r="D457">
+        <v>20364</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458" s="1">
+        <v>44577</v>
+      </c>
+      <c r="B458">
+        <v>17352</v>
+      </c>
+      <c r="C458">
+        <v>3064</v>
+      </c>
+      <c r="D458">
+        <v>20416</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459" s="1">
+        <v>44578</v>
+      </c>
+      <c r="B459">
+        <v>17398</v>
+      </c>
+      <c r="C459">
+        <v>3077</v>
+      </c>
+      <c r="D459">
+        <v>20475</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460" s="1">
+        <v>44579</v>
+      </c>
+      <c r="B460">
+        <v>17459</v>
+      </c>
+      <c r="C460">
+        <v>3072</v>
+      </c>
+      <c r="D460">
+        <v>20531</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461" s="1">
+        <v>44580</v>
+      </c>
+      <c r="B461">
+        <v>17520</v>
+      </c>
+      <c r="C461">
+        <v>3078</v>
+      </c>
+      <c r="D461">
+        <v>20598</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462" s="1">
+        <v>44581</v>
+      </c>
+      <c r="B462">
+        <v>17577</v>
+      </c>
+      <c r="C462">
+        <v>3080</v>
+      </c>
+      <c r="D462">
+        <v>20657</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463" s="1">
+        <v>44582</v>
+      </c>
+      <c r="B463">
+        <v>17612</v>
+      </c>
+      <c r="C463">
+        <v>3085</v>
+      </c>
+      <c r="D463">
+        <v>20697</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464" s="1">
+        <v>44583</v>
+      </c>
+      <c r="B464">
+        <v>17643</v>
+      </c>
+      <c r="C464">
+        <v>3085</v>
+      </c>
+      <c r="D464">
+        <v>20728</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465" s="1">
+        <v>44584</v>
+      </c>
+      <c r="B465">
+        <v>17675</v>
+      </c>
+      <c r="C465">
+        <v>3096</v>
+      </c>
+      <c r="D465">
+        <v>20771</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466" s="1">
+        <v>44585</v>
+      </c>
+      <c r="B466">
+        <v>17698</v>
+      </c>
+      <c r="C466">
+        <v>3111</v>
+      </c>
+      <c r="D466">
+        <v>20809</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B467">
+        <v>17725</v>
+      </c>
+      <c r="C467">
+        <v>3115</v>
+      </c>
+      <c r="D467">
+        <v>20840</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468" s="1">
+        <v>44587</v>
+      </c>
+      <c r="B468">
+        <v>17755</v>
+      </c>
+      <c r="C468">
+        <v>3126</v>
+      </c>
+      <c r="D468">
+        <v>20881</v>
       </c>
     </row>
   </sheetData>
@@ -6142,18 +6954,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6368,6 +7180,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E17842-9B7C-4649-B236-529FBDA6159D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -6380,14 +7200,6 @@
     <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Deaths/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
+++ b/Deaths/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/Deaths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_242B332E13B103BB156855F4CE0E46716C100010" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98ACDE9D-AC71-4E3E-956C-A06C5B4D3FA2}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_242B332E13B103BB156855F4CE0E46716C100010" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE54D1F1-64AD-4831-A776-BF3675683BFA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D468"/>
+  <dimension ref="A1:D538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A449" workbookViewId="0">
-      <selection activeCell="A468" sqref="A468"/>
+    <sheetView tabSelected="1" topLeftCell="A489" workbookViewId="0">
+      <selection activeCell="A538" sqref="A538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6948,24 +6948,1004 @@
         <v>20881</v>
       </c>
     </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469" s="1">
+        <v>44588</v>
+      </c>
+      <c r="B469">
+        <v>17779</v>
+      </c>
+      <c r="C469">
+        <v>3132</v>
+      </c>
+      <c r="D469">
+        <v>20911</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470" s="1">
+        <v>44589</v>
+      </c>
+      <c r="B470">
+        <v>17796</v>
+      </c>
+      <c r="C470">
+        <v>3137</v>
+      </c>
+      <c r="D470">
+        <v>20933</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471" s="1">
+        <v>44590</v>
+      </c>
+      <c r="B471">
+        <v>17817</v>
+      </c>
+      <c r="C471">
+        <v>3144</v>
+      </c>
+      <c r="D471">
+        <v>20961</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472" s="1">
+        <v>44591</v>
+      </c>
+      <c r="B472">
+        <v>17830</v>
+      </c>
+      <c r="C472">
+        <v>3146</v>
+      </c>
+      <c r="D472">
+        <v>20976</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B473">
+        <v>17850</v>
+      </c>
+      <c r="C473">
+        <v>3150</v>
+      </c>
+      <c r="D473">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B474">
+        <v>17877</v>
+      </c>
+      <c r="C474">
+        <v>3161</v>
+      </c>
+      <c r="D474">
+        <v>21038</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475" s="1">
+        <v>44594</v>
+      </c>
+      <c r="B475">
+        <v>17896</v>
+      </c>
+      <c r="C475">
+        <v>3164</v>
+      </c>
+      <c r="D475">
+        <v>21060</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476" s="1">
+        <v>44595</v>
+      </c>
+      <c r="B476">
+        <v>17921</v>
+      </c>
+      <c r="C476">
+        <v>3168</v>
+      </c>
+      <c r="D476">
+        <v>21089</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477" s="1">
+        <v>44596</v>
+      </c>
+      <c r="B477">
+        <v>17938</v>
+      </c>
+      <c r="C477">
+        <v>3173</v>
+      </c>
+      <c r="D477">
+        <v>21111</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478" s="1">
+        <v>44597</v>
+      </c>
+      <c r="B478">
+        <v>17958</v>
+      </c>
+      <c r="C478">
+        <v>3179</v>
+      </c>
+      <c r="D478">
+        <v>21137</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479" s="1">
+        <v>44598</v>
+      </c>
+      <c r="B479">
+        <v>17973</v>
+      </c>
+      <c r="C479">
+        <v>3182</v>
+      </c>
+      <c r="D479">
+        <v>21155</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480" s="1">
+        <v>44599</v>
+      </c>
+      <c r="B480">
+        <v>17995</v>
+      </c>
+      <c r="C480">
+        <v>3210</v>
+      </c>
+      <c r="D480">
+        <v>21205</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481" s="1">
+        <v>44600</v>
+      </c>
+      <c r="B481">
+        <v>18014</v>
+      </c>
+      <c r="C481">
+        <v>3220</v>
+      </c>
+      <c r="D481">
+        <v>21234</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482" s="1">
+        <v>44601</v>
+      </c>
+      <c r="B482">
+        <v>18040</v>
+      </c>
+      <c r="C482">
+        <v>3224</v>
+      </c>
+      <c r="D482">
+        <v>21264</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483" s="1">
+        <v>44602</v>
+      </c>
+      <c r="B483">
+        <v>18064</v>
+      </c>
+      <c r="C483">
+        <v>3236</v>
+      </c>
+      <c r="D483">
+        <v>21300</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A484" s="1">
+        <v>44603</v>
+      </c>
+      <c r="B484">
+        <v>18081</v>
+      </c>
+      <c r="C484">
+        <v>3247</v>
+      </c>
+      <c r="D484">
+        <v>21328</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A485" s="1">
+        <v>44604</v>
+      </c>
+      <c r="B485">
+        <v>18095</v>
+      </c>
+      <c r="C485">
+        <v>3256</v>
+      </c>
+      <c r="D485">
+        <v>21351</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A486" s="1">
+        <v>44605</v>
+      </c>
+      <c r="B486">
+        <v>18105</v>
+      </c>
+      <c r="C486">
+        <v>3258</v>
+      </c>
+      <c r="D486">
+        <v>21363</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A487" s="1">
+        <v>44606</v>
+      </c>
+      <c r="B487">
+        <v>18123</v>
+      </c>
+      <c r="C487">
+        <v>3268</v>
+      </c>
+      <c r="D487">
+        <v>21391</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A488" s="1">
+        <v>44607</v>
+      </c>
+      <c r="B488">
+        <v>18145</v>
+      </c>
+      <c r="C488">
+        <v>3282</v>
+      </c>
+      <c r="D488">
+        <v>21427</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A489" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B489">
+        <v>18179</v>
+      </c>
+      <c r="C489">
+        <v>3298</v>
+      </c>
+      <c r="D489">
+        <v>21477</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A490" s="1">
+        <v>44609</v>
+      </c>
+      <c r="B490">
+        <v>18201</v>
+      </c>
+      <c r="C490">
+        <v>3309</v>
+      </c>
+      <c r="D490">
+        <v>21510</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A491" s="1">
+        <v>44610</v>
+      </c>
+      <c r="B491">
+        <v>18225</v>
+      </c>
+      <c r="C491">
+        <v>3323</v>
+      </c>
+      <c r="D491">
+        <v>21548</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A492" s="1">
+        <v>44611</v>
+      </c>
+      <c r="B492">
+        <v>18240</v>
+      </c>
+      <c r="C492">
+        <v>3333</v>
+      </c>
+      <c r="D492">
+        <v>21573</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A493" s="1">
+        <v>44612</v>
+      </c>
+      <c r="B493">
+        <v>18252</v>
+      </c>
+      <c r="C493">
+        <v>3338</v>
+      </c>
+      <c r="D493">
+        <v>21590</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A494" s="1">
+        <v>44613</v>
+      </c>
+      <c r="B494">
+        <v>18279</v>
+      </c>
+      <c r="C494">
+        <v>3348</v>
+      </c>
+      <c r="D494">
+        <v>21627</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A495" s="1">
+        <v>44614</v>
+      </c>
+      <c r="B495">
+        <v>18314</v>
+      </c>
+      <c r="C495">
+        <v>3368</v>
+      </c>
+      <c r="D495">
+        <v>21682</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A496" s="1">
+        <v>44615</v>
+      </c>
+      <c r="B496">
+        <v>18338</v>
+      </c>
+      <c r="C496">
+        <v>3378</v>
+      </c>
+      <c r="D496">
+        <v>21716</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A497" s="1">
+        <v>44616</v>
+      </c>
+      <c r="B497">
+        <v>18375</v>
+      </c>
+      <c r="C497">
+        <v>3391</v>
+      </c>
+      <c r="D497">
+        <v>21766</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A498" s="1">
+        <v>44617</v>
+      </c>
+      <c r="B498">
+        <v>18413</v>
+      </c>
+      <c r="C498">
+        <v>3405</v>
+      </c>
+      <c r="D498">
+        <v>21818</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A499" s="1">
+        <v>44618</v>
+      </c>
+      <c r="B499">
+        <v>18453</v>
+      </c>
+      <c r="C499">
+        <v>3415</v>
+      </c>
+      <c r="D499">
+        <v>21868</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A500" s="1">
+        <v>44619</v>
+      </c>
+      <c r="B500">
+        <v>18485</v>
+      </c>
+      <c r="C500">
+        <v>3425</v>
+      </c>
+      <c r="D500">
+        <v>21910</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A501" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B501">
+        <v>18530</v>
+      </c>
+      <c r="C501">
+        <v>3441</v>
+      </c>
+      <c r="D501">
+        <v>21971</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A502" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B502">
+        <v>18567</v>
+      </c>
+      <c r="C502">
+        <v>3451</v>
+      </c>
+      <c r="D502">
+        <v>22018</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A503" s="1">
+        <v>44622</v>
+      </c>
+      <c r="B503">
+        <v>18611</v>
+      </c>
+      <c r="C503">
+        <v>3467</v>
+      </c>
+      <c r="D503">
+        <v>22078</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A504" s="1">
+        <v>44623</v>
+      </c>
+      <c r="B504">
+        <v>18631</v>
+      </c>
+      <c r="C504">
+        <v>3480</v>
+      </c>
+      <c r="D504">
+        <v>22111</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A505" s="1">
+        <v>44624</v>
+      </c>
+      <c r="B505">
+        <v>18663</v>
+      </c>
+      <c r="C505">
+        <v>3488</v>
+      </c>
+      <c r="D505">
+        <v>22151</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A506" s="1">
+        <v>44625</v>
+      </c>
+      <c r="B506">
+        <v>18687</v>
+      </c>
+      <c r="C506">
+        <v>3495</v>
+      </c>
+      <c r="D506">
+        <v>22182</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A507" s="1">
+        <v>44626</v>
+      </c>
+      <c r="B507">
+        <v>18704</v>
+      </c>
+      <c r="C507">
+        <v>3496</v>
+      </c>
+      <c r="D507">
+        <v>22200</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A508" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B508">
+        <v>18750</v>
+      </c>
+      <c r="C508">
+        <v>3510</v>
+      </c>
+      <c r="D508">
+        <v>22260</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A509" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B509">
+        <v>18786</v>
+      </c>
+      <c r="C509">
+        <v>3523</v>
+      </c>
+      <c r="D509">
+        <v>22309</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A510" s="1">
+        <v>44629</v>
+      </c>
+      <c r="B510">
+        <v>18817</v>
+      </c>
+      <c r="C510">
+        <v>3535</v>
+      </c>
+      <c r="D510">
+        <v>22352</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A511" s="1">
+        <v>44630</v>
+      </c>
+      <c r="B511">
+        <v>18847</v>
+      </c>
+      <c r="C511">
+        <v>3551</v>
+      </c>
+      <c r="D511">
+        <v>22398</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A512" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B512">
+        <v>18881</v>
+      </c>
+      <c r="C512">
+        <v>3578</v>
+      </c>
+      <c r="D512">
+        <v>22459</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A513" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B513">
+        <v>18918</v>
+      </c>
+      <c r="C513">
+        <v>3602</v>
+      </c>
+      <c r="D513">
+        <v>22520</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A514" s="1">
+        <v>44633</v>
+      </c>
+      <c r="B514">
+        <v>18950</v>
+      </c>
+      <c r="C514">
+        <v>3624</v>
+      </c>
+      <c r="D514">
+        <v>22574</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A515" s="1">
+        <v>44634</v>
+      </c>
+      <c r="B515">
+        <v>18979</v>
+      </c>
+      <c r="C515">
+        <v>3639</v>
+      </c>
+      <c r="D515">
+        <v>22618</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A516" s="1">
+        <v>44635</v>
+      </c>
+      <c r="B516">
+        <v>19009</v>
+      </c>
+      <c r="C516">
+        <v>3649</v>
+      </c>
+      <c r="D516">
+        <v>22658</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A517" s="1">
+        <v>44636</v>
+      </c>
+      <c r="B517">
+        <v>19040</v>
+      </c>
+      <c r="C517">
+        <v>3658</v>
+      </c>
+      <c r="D517">
+        <v>22698</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A518" s="1">
+        <v>44637</v>
+      </c>
+      <c r="B518">
+        <v>19073</v>
+      </c>
+      <c r="C518">
+        <v>3671</v>
+      </c>
+      <c r="D518">
+        <v>22744</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A519" s="1">
+        <v>44638</v>
+      </c>
+      <c r="B519">
+        <v>19093</v>
+      </c>
+      <c r="C519">
+        <v>3680</v>
+      </c>
+      <c r="D519">
+        <v>22773</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A520" s="1">
+        <v>44639</v>
+      </c>
+      <c r="B520">
+        <v>19110</v>
+      </c>
+      <c r="C520">
+        <v>3684</v>
+      </c>
+      <c r="D520">
+        <v>22794</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A521" s="1">
+        <v>44640</v>
+      </c>
+      <c r="B521">
+        <v>19133</v>
+      </c>
+      <c r="C521">
+        <v>3687</v>
+      </c>
+      <c r="D521">
+        <v>22820</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A522" s="1">
+        <v>44641</v>
+      </c>
+      <c r="B522">
+        <v>19161</v>
+      </c>
+      <c r="C522">
+        <v>3695</v>
+      </c>
+      <c r="D522">
+        <v>22856</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A523" s="1">
+        <v>44642</v>
+      </c>
+      <c r="B523">
+        <v>19185</v>
+      </c>
+      <c r="C523">
+        <v>3704</v>
+      </c>
+      <c r="D523">
+        <v>22889</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A524" s="1">
+        <v>44643</v>
+      </c>
+      <c r="B524">
+        <v>19209</v>
+      </c>
+      <c r="C524">
+        <v>3712</v>
+      </c>
+      <c r="D524">
+        <v>22921</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A525" s="1">
+        <v>44644</v>
+      </c>
+      <c r="B525">
+        <v>19229</v>
+      </c>
+      <c r="C525">
+        <v>3719</v>
+      </c>
+      <c r="D525">
+        <v>22948</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A526" s="1">
+        <v>44645</v>
+      </c>
+      <c r="B526">
+        <v>19251</v>
+      </c>
+      <c r="C526">
+        <v>3727</v>
+      </c>
+      <c r="D526">
+        <v>22978</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A527" s="1">
+        <v>44646</v>
+      </c>
+      <c r="B527">
+        <v>19270</v>
+      </c>
+      <c r="C527">
+        <v>3733</v>
+      </c>
+      <c r="D527">
+        <v>23003</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A528" s="1">
+        <v>44647</v>
+      </c>
+      <c r="B528">
+        <v>19292</v>
+      </c>
+      <c r="C528">
+        <v>3739</v>
+      </c>
+      <c r="D528">
+        <v>23031</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A529" s="1">
+        <v>44648</v>
+      </c>
+      <c r="B529">
+        <v>19311</v>
+      </c>
+      <c r="C529">
+        <v>3743</v>
+      </c>
+      <c r="D529">
+        <v>23054</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A530" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B530">
+        <v>19334</v>
+      </c>
+      <c r="C530">
+        <v>3753</v>
+      </c>
+      <c r="D530">
+        <v>23087</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A531" s="1">
+        <v>44650</v>
+      </c>
+      <c r="B531">
+        <v>19352</v>
+      </c>
+      <c r="C531">
+        <v>3760</v>
+      </c>
+      <c r="D531">
+        <v>23112</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A532" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B532">
+        <v>19368</v>
+      </c>
+      <c r="C532">
+        <v>3769</v>
+      </c>
+      <c r="D532">
+        <v>23137</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A533" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B533">
+        <v>19392</v>
+      </c>
+      <c r="C533">
+        <v>3783</v>
+      </c>
+      <c r="D533">
+        <v>23175</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A534" s="1">
+        <v>44653</v>
+      </c>
+      <c r="B534">
+        <v>19417</v>
+      </c>
+      <c r="C534">
+        <v>3795</v>
+      </c>
+      <c r="D534">
+        <v>23212</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A535" s="1">
+        <v>44654</v>
+      </c>
+      <c r="B535">
+        <v>19440</v>
+      </c>
+      <c r="C535">
+        <v>3812</v>
+      </c>
+      <c r="D535">
+        <v>23252</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A536" s="1">
+        <v>44655</v>
+      </c>
+      <c r="B536">
+        <v>19462</v>
+      </c>
+      <c r="C536">
+        <v>3824</v>
+      </c>
+      <c r="D536">
+        <v>23286</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A537" s="1">
+        <v>44656</v>
+      </c>
+      <c r="B537">
+        <v>19482</v>
+      </c>
+      <c r="C537">
+        <v>3833</v>
+      </c>
+      <c r="D537">
+        <v>23315</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A538" s="1">
+        <v>44657</v>
+      </c>
+      <c r="B538">
+        <v>19500</v>
+      </c>
+      <c r="C538">
+        <v>3844</v>
+      </c>
+      <c r="D538">
+        <v>23344</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7180,14 +8160,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E17842-9B7C-4649-B236-529FBDA6159D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -7200,6 +8172,14 @@
     <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
